--- a/fc/debug_saving.xlsx
+++ b/fc/debug_saving.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\David\OneDrive\桌面\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kevin\GoI\InsuranceGame\fc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68471A38-0062-453E-8810-2502EF96CD34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56CD0C41-5459-4FC9-B8C5-13274136F2BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15600" xr2:uid="{BBE9402B-D6B4-4641-BA12-C10FFF21168E}"/>
+    <workbookView xWindow="-19310" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{BBE9402B-D6B4-4641-BA12-C10FFF21168E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,21 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>step</t>
   </si>
@@ -52,6 +43,9 @@
   </si>
   <si>
     <t>new kid</t>
+  </si>
+  <si>
+    <t>car accident</t>
   </si>
 </sst>
 </file>
@@ -87,8 +81,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -403,15 +398,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{392C735B-4C7D-4DFC-B895-F845E7471A63}">
-  <dimension ref="A1:G61"/>
+  <dimension ref="A1:J61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="U30" sqref="U30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" customWidth="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -428,10 +429,13 @@
         <v>3</v>
       </c>
       <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -441,15 +445,16 @@
       <c r="C2">
         <v>180000</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="1">
         <f>C2</f>
         <v>180000</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J2" s="1"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
         <f>A2+1</f>
         <v>1</v>
@@ -460,34 +465,36 @@
       <c r="C3">
         <v>184500</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="1">
         <f>D2+C3</f>
         <v>364500</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J3" s="1"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
-        <f t="shared" ref="A4:A61" si="0">A3+1</f>
+        <f t="shared" ref="A4:B61" si="0">A3+1</f>
         <v>2</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="1">
         <v>21</v>
       </c>
       <c r="C4">
-        <v>184500</v>
-      </c>
-      <c r="D4">
-        <f>D3+C4</f>
-        <v>549000</v>
+        <v>189113</v>
+      </c>
+      <c r="D4" s="1">
+        <f t="shared" ref="D4:D34" si="1">D3+C4</f>
+        <v>553613</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J4" s="1"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -496,17 +503,18 @@
         <v>22</v>
       </c>
       <c r="C5">
-        <v>189113</v>
-      </c>
-      <c r="D5">
-        <f>D4+C5</f>
-        <v>738113</v>
+        <v>193840</v>
+      </c>
+      <c r="D5" s="1">
+        <f t="shared" si="1"/>
+        <v>747453</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J5" s="1"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -515,17 +523,18 @@
         <v>23</v>
       </c>
       <c r="C6">
-        <v>193840</v>
-      </c>
-      <c r="D6">
-        <f>D5+C6</f>
-        <v>931953</v>
+        <v>198686</v>
+      </c>
+      <c r="D6" s="1">
+        <f t="shared" si="1"/>
+        <v>946139</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J6" s="1"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -534,11 +543,11 @@
         <v>24</v>
       </c>
       <c r="C7">
-        <v>198686</v>
-      </c>
-      <c r="D7">
-        <f>D6+C7</f>
-        <v>1130639</v>
+        <v>203653</v>
+      </c>
+      <c r="D7" s="1">
+        <f t="shared" si="1"/>
+        <v>1149792</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -547,12 +556,13 @@
         <f>12000</f>
         <v>12000</v>
       </c>
-      <c r="G7">
-        <f>D7-F7+E7</f>
-        <v>1118639</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I7" s="1">
+        <f>D7-F7-E7</f>
+        <v>1137792</v>
+      </c>
+      <c r="J7" s="1"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -561,11 +571,11 @@
         <v>24</v>
       </c>
       <c r="C8">
-        <v>198686</v>
-      </c>
-      <c r="D8">
-        <f>D7+C8</f>
-        <v>1329325</v>
+        <v>208745</v>
+      </c>
+      <c r="D8" s="1">
+        <f t="shared" si="1"/>
+        <v>1358537</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -574,12 +584,13 @@
         <f>12000</f>
         <v>12000</v>
       </c>
-      <c r="G8">
-        <f>D8-F8+E8</f>
-        <v>1317325</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I8">
+        <f>D8-F8-E8</f>
+        <v>1346537</v>
+      </c>
+      <c r="J8" s="1"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -588,11 +599,11 @@
         <v>25</v>
       </c>
       <c r="C9">
-        <v>203653</v>
-      </c>
-      <c r="D9">
-        <f>D8+C9</f>
-        <v>1532978</v>
+        <v>213963</v>
+      </c>
+      <c r="D9" s="1">
+        <f t="shared" si="1"/>
+        <v>1572500</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -601,12 +612,13 @@
         <f>12000</f>
         <v>12000</v>
       </c>
-      <c r="G9">
-        <f>D9-F9+E9</f>
-        <v>1520978</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I9">
+        <f>D9-F9-E9</f>
+        <v>1560500</v>
+      </c>
+      <c r="J9" s="1"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -615,11 +627,11 @@
         <v>26</v>
       </c>
       <c r="C10">
-        <v>208745</v>
-      </c>
-      <c r="D10">
-        <f>D9+C10</f>
-        <v>1741723</v>
+        <v>219313</v>
+      </c>
+      <c r="D10" s="1">
+        <f t="shared" si="1"/>
+        <v>1791813</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -628,12 +640,13 @@
         <f>12000</f>
         <v>12000</v>
       </c>
-      <c r="G10">
-        <f>D10-F10+E10</f>
-        <v>1729723</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I10">
+        <f>D10-F10-E10</f>
+        <v>1779813</v>
+      </c>
+      <c r="J10" s="1"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -642,11 +655,11 @@
         <v>27</v>
       </c>
       <c r="C11">
-        <v>213963</v>
-      </c>
-      <c r="D11">
-        <f>D10+C11</f>
-        <v>1955686</v>
+        <v>224795</v>
+      </c>
+      <c r="D11" s="1">
+        <f t="shared" si="1"/>
+        <v>2016608</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -655,12 +668,13 @@
         <f>12000</f>
         <v>12000</v>
       </c>
-      <c r="G11">
-        <f>D11-F11+E11</f>
-        <v>1943686</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I11">
+        <f>D11-F11-E11</f>
+        <v>2004608</v>
+      </c>
+      <c r="J11" s="1"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -669,11 +683,11 @@
         <v>27</v>
       </c>
       <c r="C12">
-        <v>213963</v>
-      </c>
-      <c r="D12">
-        <f>D11+C12</f>
-        <v>2169649</v>
+        <v>230415</v>
+      </c>
+      <c r="D12" s="1">
+        <f t="shared" si="1"/>
+        <v>2247023</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -682,12 +696,13 @@
         <f>12000</f>
         <v>12000</v>
       </c>
-      <c r="G12">
-        <f>D12-F12+E12</f>
-        <v>2157649</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I12">
+        <f>D12-F12-E12</f>
+        <v>2235023</v>
+      </c>
+      <c r="J12" s="1"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -696,11 +711,11 @@
         <v>28</v>
       </c>
       <c r="C13">
-        <v>219313</v>
-      </c>
-      <c r="D13">
-        <f>D12+C13</f>
-        <v>2388962</v>
+        <v>236176</v>
+      </c>
+      <c r="D13" s="1">
+        <f t="shared" si="1"/>
+        <v>2483199</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -709,12 +724,13 @@
         <f>12000</f>
         <v>12000</v>
       </c>
-      <c r="G13">
-        <f>D13-F13+E13</f>
-        <v>2376962</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I13">
+        <f>D13-F13-E13</f>
+        <v>2471199</v>
+      </c>
+      <c r="J13" s="1"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -723,11 +739,11 @@
         <v>29</v>
       </c>
       <c r="C14">
-        <v>224795</v>
-      </c>
-      <c r="D14">
-        <f>D13+C14</f>
-        <v>2613757</v>
+        <v>242080</v>
+      </c>
+      <c r="D14" s="1">
+        <f t="shared" si="1"/>
+        <v>2725279</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -737,11 +753,15 @@
         <v>12000</v>
       </c>
       <c r="G14">
-        <f>D14-F14+E14</f>
-        <v>2601757</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+        <v>90000</v>
+      </c>
+      <c r="I14" s="1">
+        <f>D14-F14-E14-G14</f>
+        <v>2623279</v>
+      </c>
+      <c r="J14" s="1"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -750,11 +770,11 @@
         <v>30</v>
       </c>
       <c r="C15">
-        <v>230415</v>
-      </c>
-      <c r="D15">
-        <f>D14+C15</f>
-        <v>2844172</v>
+        <v>248132</v>
+      </c>
+      <c r="D15" s="1">
+        <f t="shared" si="1"/>
+        <v>2973411</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -764,11 +784,15 @@
         <v>12000</v>
       </c>
       <c r="G15">
-        <f>D15-F15+E15</f>
-        <v>2832172</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+        <v>90000</v>
+      </c>
+      <c r="I15" s="1">
+        <f>D15-F15-E15-G15</f>
+        <v>2871411</v>
+      </c>
+      <c r="J15" s="1"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -777,11 +801,11 @@
         <v>30</v>
       </c>
       <c r="C16">
-        <v>230415</v>
-      </c>
-      <c r="D16">
-        <f>D15+C16</f>
-        <v>3074587</v>
+        <v>254335</v>
+      </c>
+      <c r="D16" s="1">
+        <f t="shared" si="1"/>
+        <v>3227746</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -791,11 +815,15 @@
         <v>12000</v>
       </c>
       <c r="G16">
-        <f>D16-F16+E16</f>
-        <v>3062587</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+        <v>90000</v>
+      </c>
+      <c r="I16" s="1">
+        <f t="shared" ref="I15:I61" si="2">D16-F16-E16-G16</f>
+        <v>3125746</v>
+      </c>
+      <c r="J16" s="1"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -804,11 +832,11 @@
         <v>31</v>
       </c>
       <c r="C17">
-        <v>236176</v>
-      </c>
-      <c r="D17">
-        <f>D16+C17</f>
-        <v>3310763</v>
+        <v>260694</v>
+      </c>
+      <c r="D17" s="1">
+        <f t="shared" si="1"/>
+        <v>3488440</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -818,11 +846,15 @@
         <v>12000</v>
       </c>
       <c r="G17">
-        <f>D17-F17+E17</f>
-        <v>3298763</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+        <v>90000</v>
+      </c>
+      <c r="I17" s="1">
+        <f t="shared" si="2"/>
+        <v>3386440</v>
+      </c>
+      <c r="J17" s="1"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -831,11 +863,11 @@
         <v>32</v>
       </c>
       <c r="C18">
-        <v>242080</v>
-      </c>
-      <c r="D18">
-        <f>D17+C18</f>
-        <v>3552843</v>
+        <v>267211</v>
+      </c>
+      <c r="D18" s="1">
+        <f t="shared" si="1"/>
+        <v>3755651</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -845,11 +877,15 @@
         <v>12000</v>
       </c>
       <c r="G18">
-        <f>D18-F18+E18</f>
-        <v>3540843</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+        <v>90000</v>
+      </c>
+      <c r="I18" s="1">
+        <f t="shared" si="2"/>
+        <v>3653651</v>
+      </c>
+      <c r="J18" s="1"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -858,11 +894,11 @@
         <v>32</v>
       </c>
       <c r="C19">
-        <v>242080</v>
-      </c>
-      <c r="D19">
-        <f>D18+C19</f>
-        <v>3794923</v>
+        <v>273891</v>
+      </c>
+      <c r="D19" s="1">
+        <f t="shared" si="1"/>
+        <v>4029542</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -872,11 +908,15 @@
         <v>12000</v>
       </c>
       <c r="G19">
-        <f>D19-F19+E19</f>
-        <v>3782923</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+        <v>90000</v>
+      </c>
+      <c r="I19" s="1">
+        <f t="shared" si="2"/>
+        <v>3927542</v>
+      </c>
+      <c r="J19" s="1"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -885,26 +925,30 @@
         <v>33</v>
       </c>
       <c r="C20">
-        <v>248132</v>
-      </c>
-      <c r="D20">
-        <f>D19+C20</f>
-        <v>4043055</v>
-      </c>
-      <c r="E20">
-        <f xml:space="preserve"> ROUNDUP(C20 * 0.1, 0)</f>
-        <v>24814</v>
+        <v>280739</v>
+      </c>
+      <c r="D20" s="1">
+        <f t="shared" si="1"/>
+        <v>4310281</v>
+      </c>
+      <c r="E20" s="1">
+        <f>ROUNDUP(C20*0.1,0.1)</f>
+        <v>28074</v>
       </c>
       <c r="F20">
         <f>12000</f>
         <v>12000</v>
       </c>
       <c r="G20">
-        <f>D20-F20+E20</f>
-        <v>4055869</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+        <v>90000</v>
+      </c>
+      <c r="I20" s="1">
+        <f t="shared" si="2"/>
+        <v>4180207</v>
+      </c>
+      <c r="J20" s="1"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -913,26 +957,30 @@
         <v>34</v>
       </c>
       <c r="C21">
-        <v>254335</v>
-      </c>
-      <c r="D21">
-        <f>D20+C21</f>
-        <v>4297390</v>
-      </c>
-      <c r="E21">
-        <f xml:space="preserve"> ROUNDUP(C21 * 0.1, 0)</f>
-        <v>25434</v>
+        <v>287757</v>
+      </c>
+      <c r="D21" s="1">
+        <f t="shared" si="1"/>
+        <v>4598038</v>
+      </c>
+      <c r="E21" s="1">
+        <f>E20</f>
+        <v>28074</v>
       </c>
       <c r="F21">
         <f>12000</f>
         <v>12000</v>
       </c>
       <c r="G21">
-        <f>D21-F21+E21</f>
-        <v>4310824</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+        <v>90000</v>
+      </c>
+      <c r="I21" s="1">
+        <f t="shared" si="2"/>
+        <v>4467964</v>
+      </c>
+      <c r="J21" s="1"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -941,26 +989,30 @@
         <v>35</v>
       </c>
       <c r="C22">
-        <v>260694</v>
-      </c>
-      <c r="D22">
-        <f>D21+C22</f>
-        <v>4558084</v>
-      </c>
-      <c r="E22">
-        <f xml:space="preserve"> ROUNDUP(C22 * 0.1, 0)</f>
-        <v>26070</v>
+        <v>294951</v>
+      </c>
+      <c r="D22" s="1">
+        <f t="shared" si="1"/>
+        <v>4892989</v>
+      </c>
+      <c r="E22" s="1">
+        <f t="shared" ref="E22:E61" si="3">E21</f>
+        <v>28074</v>
       </c>
       <c r="F22">
         <f>12000</f>
         <v>12000</v>
       </c>
       <c r="G22">
-        <f>D22-F22+E22</f>
-        <v>4572154</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+        <v>90000</v>
+      </c>
+      <c r="I22" s="1">
+        <f>D22-F22-E22-G22</f>
+        <v>4762915</v>
+      </c>
+      <c r="J22" s="1"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -969,26 +1021,30 @@
         <v>35</v>
       </c>
       <c r="C23">
-        <v>260694</v>
-      </c>
-      <c r="D23">
-        <f>D22+C23</f>
-        <v>4818778</v>
-      </c>
-      <c r="E23">
-        <f xml:space="preserve"> ROUNDUP(C23 * 0.1, 0)</f>
-        <v>26070</v>
+        <v>302325</v>
+      </c>
+      <c r="D23" s="1">
+        <f t="shared" si="1"/>
+        <v>5195314</v>
+      </c>
+      <c r="E23" s="1">
+        <f t="shared" si="3"/>
+        <v>28074</v>
       </c>
       <c r="F23">
         <f>12000</f>
         <v>12000</v>
       </c>
       <c r="G23">
-        <f>D23-F23+E23</f>
-        <v>4832848</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+        <v>90000</v>
+      </c>
+      <c r="I23" s="1">
+        <f t="shared" si="2"/>
+        <v>5065240</v>
+      </c>
+      <c r="J23" s="1"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -997,26 +1053,30 @@
         <v>36</v>
       </c>
       <c r="C24">
-        <v>267211</v>
-      </c>
-      <c r="D24">
-        <f>D23+C24</f>
-        <v>5085989</v>
-      </c>
-      <c r="E24">
-        <f xml:space="preserve"> ROUNDUP(C24 * 0.1, 0)</f>
-        <v>26722</v>
+        <v>309883</v>
+      </c>
+      <c r="D24" s="1">
+        <f t="shared" si="1"/>
+        <v>5505197</v>
+      </c>
+      <c r="E24" s="1">
+        <f t="shared" si="3"/>
+        <v>28074</v>
       </c>
       <c r="F24">
         <f>12000</f>
         <v>12000</v>
       </c>
       <c r="G24">
-        <f>D24-F24+E24</f>
-        <v>5100711</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+        <v>90000</v>
+      </c>
+      <c r="I24" s="1">
+        <f t="shared" si="2"/>
+        <v>5375123</v>
+      </c>
+      <c r="J24" s="1"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -1025,26 +1085,30 @@
         <v>37</v>
       </c>
       <c r="C25">
-        <v>273891</v>
-      </c>
-      <c r="D25">
-        <f>D24+C25</f>
-        <v>5359880</v>
-      </c>
-      <c r="E25">
-        <f xml:space="preserve"> ROUNDUP(C25 * 0.1, 0)</f>
-        <v>27390</v>
+        <v>317630</v>
+      </c>
+      <c r="D25" s="1">
+        <f t="shared" si="1"/>
+        <v>5822827</v>
+      </c>
+      <c r="E25" s="1">
+        <f t="shared" si="3"/>
+        <v>28074</v>
       </c>
       <c r="F25">
         <f>12000</f>
         <v>12000</v>
       </c>
       <c r="G25">
-        <f>D25-F25+E25</f>
-        <v>5375270</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+        <v>90000</v>
+      </c>
+      <c r="I25" s="1">
+        <f t="shared" si="2"/>
+        <v>5692753</v>
+      </c>
+      <c r="J25" s="1"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -1053,14 +1117,14 @@
         <v>38</v>
       </c>
       <c r="C26">
-        <v>280739</v>
-      </c>
-      <c r="D26">
-        <f>D25+C26</f>
-        <v>5640619</v>
-      </c>
-      <c r="E26">
-        <f xml:space="preserve"> ROUNDUP(C26 * 0.1, 0)</f>
+        <v>325571</v>
+      </c>
+      <c r="D26" s="1">
+        <f t="shared" si="1"/>
+        <v>6148398</v>
+      </c>
+      <c r="E26" s="1">
+        <f t="shared" si="3"/>
         <v>28074</v>
       </c>
       <c r="F26">
@@ -1068,11 +1132,16 @@
         <v>12000</v>
       </c>
       <c r="G26">
-        <f>D26-F26+E26</f>
-        <v>5656693</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+        <f>120000+90000</f>
+        <v>210000</v>
+      </c>
+      <c r="I26" s="1">
+        <f t="shared" si="2"/>
+        <v>5898324</v>
+      </c>
+      <c r="J26" s="1"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -1081,14 +1150,14 @@
         <v>38</v>
       </c>
       <c r="C27">
-        <v>280739</v>
-      </c>
-      <c r="D27">
-        <f>D26+C27</f>
-        <v>5921358</v>
-      </c>
-      <c r="E27">
-        <f xml:space="preserve"> ROUNDUP(C27 * 0.1, 0)</f>
+        <v>333710</v>
+      </c>
+      <c r="D27" s="1">
+        <f t="shared" si="1"/>
+        <v>6482108</v>
+      </c>
+      <c r="E27" s="1">
+        <f t="shared" si="3"/>
         <v>28074</v>
       </c>
       <c r="F27">
@@ -1096,11 +1165,16 @@
         <v>12000</v>
       </c>
       <c r="G27">
-        <f>D27-F27+E27</f>
-        <v>5937432</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" ref="G27:G61" si="4">120000+90000</f>
+        <v>210000</v>
+      </c>
+      <c r="I27" s="1">
+        <f t="shared" si="2"/>
+        <v>6232034</v>
+      </c>
+      <c r="J27" s="1"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -1109,26 +1183,31 @@
         <v>39</v>
       </c>
       <c r="C28">
-        <v>287757</v>
-      </c>
-      <c r="D28">
-        <f>D27+C28</f>
-        <v>6209115</v>
-      </c>
-      <c r="E28">
-        <f xml:space="preserve"> ROUNDUP(C28 * 0.1, 0)</f>
-        <v>28776</v>
+        <v>342053</v>
+      </c>
+      <c r="D28" s="1">
+        <f t="shared" si="1"/>
+        <v>6824161</v>
+      </c>
+      <c r="E28" s="1">
+        <f t="shared" si="3"/>
+        <v>28074</v>
       </c>
       <c r="F28">
         <f>12000</f>
         <v>12000</v>
       </c>
       <c r="G28">
-        <f>D28-F28+E28</f>
-        <v>6225891</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>210000</v>
+      </c>
+      <c r="I28" s="1">
+        <f t="shared" si="2"/>
+        <v>6574087</v>
+      </c>
+      <c r="J28" s="1"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -1137,26 +1216,31 @@
         <v>40</v>
       </c>
       <c r="C29">
-        <v>294951</v>
-      </c>
-      <c r="D29">
-        <f>D28+C29</f>
-        <v>6504066</v>
-      </c>
-      <c r="E29">
-        <f xml:space="preserve"> ROUNDUP(C29 * 0.1, 0)</f>
-        <v>29496</v>
+        <v>350604</v>
+      </c>
+      <c r="D29" s="1">
+        <f t="shared" si="1"/>
+        <v>7174765</v>
+      </c>
+      <c r="E29" s="1">
+        <f t="shared" si="3"/>
+        <v>28074</v>
       </c>
       <c r="F29">
         <f>12000</f>
         <v>12000</v>
       </c>
       <c r="G29">
-        <f>D29-F29+E29</f>
-        <v>6521562</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>210000</v>
+      </c>
+      <c r="I29" s="1">
+        <f t="shared" si="2"/>
+        <v>6924691</v>
+      </c>
+      <c r="J29" s="1"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -1165,26 +1249,31 @@
         <v>41</v>
       </c>
       <c r="C30">
-        <v>302325</v>
-      </c>
-      <c r="D30">
-        <f>D29+C30</f>
-        <v>6806391</v>
-      </c>
-      <c r="E30">
-        <f xml:space="preserve"> ROUNDUP(C30 * 0.1, 0)</f>
-        <v>30233</v>
+        <v>359369</v>
+      </c>
+      <c r="D30" s="1">
+        <f t="shared" si="1"/>
+        <v>7534134</v>
+      </c>
+      <c r="E30" s="1">
+        <f t="shared" si="3"/>
+        <v>28074</v>
       </c>
       <c r="F30">
         <f>12000</f>
         <v>12000</v>
       </c>
       <c r="G30">
-        <f>D30-F30+E30</f>
-        <v>6824624</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>210000</v>
+      </c>
+      <c r="I30" s="1">
+        <f t="shared" si="2"/>
+        <v>7284060</v>
+      </c>
+      <c r="J30" s="1"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -1193,26 +1282,31 @@
         <v>41</v>
       </c>
       <c r="C31">
-        <v>302325</v>
-      </c>
-      <c r="D31">
-        <f>D30+C31</f>
-        <v>7108716</v>
-      </c>
-      <c r="E31">
-        <f xml:space="preserve"> ROUNDUP(C31 * 0.1, 0)</f>
-        <v>30233</v>
+        <v>368353</v>
+      </c>
+      <c r="D31" s="1">
+        <f t="shared" si="1"/>
+        <v>7902487</v>
+      </c>
+      <c r="E31" s="1">
+        <f t="shared" si="3"/>
+        <v>28074</v>
       </c>
       <c r="F31">
         <f>12000</f>
         <v>12000</v>
       </c>
       <c r="G31">
-        <f>D31-F31+E31</f>
-        <v>7126949</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>210000</v>
+      </c>
+      <c r="I31" s="1">
+        <f t="shared" si="2"/>
+        <v>7652413</v>
+      </c>
+      <c r="J31" s="1"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -1221,25 +1315,30 @@
         <v>42</v>
       </c>
       <c r="C32">
-        <v>309883</v>
-      </c>
-      <c r="D32">
-        <f>D31+C32</f>
-        <v>7418599</v>
-      </c>
-      <c r="E32">
-        <f xml:space="preserve"> ROUNDUP(C32 * 0.1, 0)</f>
-        <v>30989</v>
+        <v>377562</v>
+      </c>
+      <c r="D32" s="1">
+        <f t="shared" si="1"/>
+        <v>8280049</v>
+      </c>
+      <c r="E32" s="1">
+        <f t="shared" si="3"/>
+        <v>28074</v>
       </c>
       <c r="F32">
         <v>0</v>
       </c>
       <c r="G32">
-        <f>D32-F32+E32</f>
-        <v>7449588</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>210000</v>
+      </c>
+      <c r="I32" s="1">
+        <f t="shared" si="2"/>
+        <v>8041975</v>
+      </c>
+      <c r="J32" s="1"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -1248,25 +1347,30 @@
         <v>43</v>
       </c>
       <c r="C33">
-        <v>317630</v>
-      </c>
-      <c r="D33">
-        <f>D32+C33</f>
-        <v>7736229</v>
-      </c>
-      <c r="E33">
-        <f xml:space="preserve"> ROUNDUP(C33 * 0.1, 0)</f>
-        <v>31763</v>
+        <v>387001</v>
+      </c>
+      <c r="D33" s="1">
+        <f t="shared" si="1"/>
+        <v>8667050</v>
+      </c>
+      <c r="E33" s="1">
+        <f t="shared" si="3"/>
+        <v>28074</v>
       </c>
       <c r="F33">
         <v>0</v>
       </c>
       <c r="G33">
-        <f>D33-F33+E33</f>
-        <v>7767992</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>210000</v>
+      </c>
+      <c r="I33" s="1">
+        <f t="shared" si="2"/>
+        <v>8428976</v>
+      </c>
+      <c r="J33" s="1"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -1275,25 +1379,30 @@
         <v>44</v>
       </c>
       <c r="C34">
-        <v>325571</v>
-      </c>
-      <c r="D34">
-        <f>D33+C34</f>
-        <v>8061800</v>
-      </c>
-      <c r="E34">
-        <f xml:space="preserve"> ROUNDUP(C34 * 0.1, 0)</f>
-        <v>32558</v>
+        <v>396676</v>
+      </c>
+      <c r="D34" s="1">
+        <f t="shared" si="1"/>
+        <v>9063726</v>
+      </c>
+      <c r="E34" s="1">
+        <f t="shared" si="3"/>
+        <v>28074</v>
       </c>
       <c r="F34">
         <v>0</v>
       </c>
       <c r="G34">
-        <f>D34-F34+E34</f>
-        <v>8094358</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>210000</v>
+      </c>
+      <c r="I34" s="1">
+        <f t="shared" si="2"/>
+        <v>8825652</v>
+      </c>
+      <c r="J34" s="1"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -1302,25 +1411,30 @@
         <v>44</v>
       </c>
       <c r="C35">
-        <v>325571</v>
-      </c>
-      <c r="D35">
-        <f>D34+C35</f>
-        <v>8387371</v>
-      </c>
-      <c r="E35">
-        <f xml:space="preserve"> ROUNDUP(C35 * 0.1, 0)</f>
-        <v>32558</v>
+        <v>406593</v>
+      </c>
+      <c r="D35" s="1">
+        <f t="shared" ref="D35:D66" si="5">D34+C35</f>
+        <v>9470319</v>
+      </c>
+      <c r="E35" s="1">
+        <f t="shared" si="3"/>
+        <v>28074</v>
       </c>
       <c r="F35">
         <v>0</v>
       </c>
       <c r="G35">
-        <f>D35-F35+E35</f>
-        <v>8419929</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>210000</v>
+      </c>
+      <c r="I35" s="1">
+        <f t="shared" si="2"/>
+        <v>9232245</v>
+      </c>
+      <c r="J35" s="1"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -1329,25 +1443,30 @@
         <v>45</v>
       </c>
       <c r="C36">
-        <v>333710</v>
-      </c>
-      <c r="D36">
-        <f>D35+C36</f>
-        <v>8721081</v>
-      </c>
-      <c r="E36">
-        <f xml:space="preserve"> ROUNDUP(C36 * 0.1, 0)</f>
-        <v>33371</v>
+        <v>416758</v>
+      </c>
+      <c r="D36" s="1">
+        <f t="shared" si="5"/>
+        <v>9887077</v>
+      </c>
+      <c r="E36" s="1">
+        <f t="shared" si="3"/>
+        <v>28074</v>
       </c>
       <c r="F36">
         <v>0</v>
       </c>
       <c r="G36">
-        <f>D36-F36+E36</f>
-        <v>8754452</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>210000</v>
+      </c>
+      <c r="I36" s="1">
+        <f t="shared" si="2"/>
+        <v>9649003</v>
+      </c>
+      <c r="J36" s="1"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -1356,25 +1475,30 @@
         <v>46</v>
       </c>
       <c r="C37">
-        <v>342053</v>
-      </c>
-      <c r="D37">
-        <f>D36+C37</f>
-        <v>9063134</v>
-      </c>
-      <c r="E37">
-        <f xml:space="preserve"> ROUNDUP(C37 * 0.1, 0)</f>
-        <v>34206</v>
+        <v>427177</v>
+      </c>
+      <c r="D37" s="1">
+        <f t="shared" si="5"/>
+        <v>10314254</v>
+      </c>
+      <c r="E37" s="1">
+        <f t="shared" si="3"/>
+        <v>28074</v>
       </c>
       <c r="F37">
         <v>0</v>
       </c>
       <c r="G37">
-        <f>D37-F37+E37</f>
-        <v>9097340</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>210000</v>
+      </c>
+      <c r="I37" s="1">
+        <f t="shared" si="2"/>
+        <v>10076180</v>
+      </c>
+      <c r="J37" s="1"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -1383,25 +1507,30 @@
         <v>47</v>
       </c>
       <c r="C38">
-        <v>350604</v>
-      </c>
-      <c r="D38">
-        <f>D37+C38</f>
-        <v>9413738</v>
-      </c>
-      <c r="E38">
-        <f xml:space="preserve"> ROUNDUP(C38 * 0.1, 0)</f>
-        <v>35061</v>
+        <v>437856</v>
+      </c>
+      <c r="D38" s="1">
+        <f t="shared" si="5"/>
+        <v>10752110</v>
+      </c>
+      <c r="E38" s="1">
+        <f t="shared" si="3"/>
+        <v>28074</v>
       </c>
       <c r="F38">
         <v>0</v>
       </c>
       <c r="G38">
-        <f>D38-F38+E38</f>
-        <v>9448799</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>210000</v>
+      </c>
+      <c r="I38" s="1">
+        <f t="shared" si="2"/>
+        <v>10514036</v>
+      </c>
+      <c r="J38" s="1"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -1410,25 +1539,30 @@
         <v>48</v>
       </c>
       <c r="C39">
-        <v>359369</v>
-      </c>
-      <c r="D39">
-        <f>D38+C39</f>
-        <v>9773107</v>
-      </c>
-      <c r="E39">
-        <f xml:space="preserve"> ROUNDUP(C39 * 0.1, 0)</f>
-        <v>35937</v>
+        <v>448803</v>
+      </c>
+      <c r="D39" s="1">
+        <f t="shared" si="5"/>
+        <v>11200913</v>
+      </c>
+      <c r="E39" s="1">
+        <f t="shared" si="3"/>
+        <v>28074</v>
       </c>
       <c r="F39">
         <v>0</v>
       </c>
       <c r="G39">
-        <f>D39-F39+E39</f>
-        <v>9809044</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>210000</v>
+      </c>
+      <c r="I39" s="1">
+        <f t="shared" si="2"/>
+        <v>10962839</v>
+      </c>
+      <c r="J39" s="1"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -1437,25 +1571,30 @@
         <v>49</v>
       </c>
       <c r="C40">
-        <v>368353</v>
-      </c>
-      <c r="D40">
-        <f>D39+C40</f>
-        <v>10141460</v>
-      </c>
-      <c r="E40">
-        <f xml:space="preserve"> ROUNDUP(C40 * 0.1, 0)</f>
-        <v>36836</v>
+        <v>460023</v>
+      </c>
+      <c r="D40" s="1">
+        <f t="shared" si="5"/>
+        <v>11660936</v>
+      </c>
+      <c r="E40" s="1">
+        <f t="shared" si="3"/>
+        <v>28074</v>
       </c>
       <c r="F40">
         <v>0</v>
       </c>
       <c r="G40">
-        <f>D40-F40+E40</f>
-        <v>10178296</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>210000</v>
+      </c>
+      <c r="I40" s="1">
+        <f t="shared" si="2"/>
+        <v>11422862</v>
+      </c>
+      <c r="J40" s="1"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -1464,25 +1603,30 @@
         <v>50</v>
       </c>
       <c r="C41">
-        <v>377562</v>
-      </c>
-      <c r="D41">
-        <f>D40+C41</f>
-        <v>10519022</v>
-      </c>
-      <c r="E41">
-        <f xml:space="preserve"> ROUNDUP(C41 * 0.1, 0)</f>
-        <v>37757</v>
+        <v>471523</v>
+      </c>
+      <c r="D41" s="1">
+        <f t="shared" si="5"/>
+        <v>12132459</v>
+      </c>
+      <c r="E41" s="1">
+        <f t="shared" si="3"/>
+        <v>28074</v>
       </c>
       <c r="F41">
         <v>0</v>
       </c>
       <c r="G41">
-        <f>D41-F41+E41</f>
-        <v>10556779</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>210000</v>
+      </c>
+      <c r="I41" s="1">
+        <f t="shared" si="2"/>
+        <v>11894385</v>
+      </c>
+      <c r="J41" s="1"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -1491,25 +1635,30 @@
         <v>51</v>
       </c>
       <c r="C42">
-        <v>387001</v>
-      </c>
-      <c r="D42">
-        <f>D41+C42</f>
-        <v>10906023</v>
-      </c>
-      <c r="E42">
-        <f xml:space="preserve"> ROUNDUP(C42 * 0.1, 0)</f>
-        <v>38701</v>
+        <v>483311</v>
+      </c>
+      <c r="D42" s="1">
+        <f t="shared" si="5"/>
+        <v>12615770</v>
+      </c>
+      <c r="E42" s="1">
+        <f t="shared" si="3"/>
+        <v>28074</v>
       </c>
       <c r="F42">
         <v>0</v>
       </c>
       <c r="G42">
-        <f>D42-F42+E42</f>
-        <v>10944724</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>210000</v>
+      </c>
+      <c r="I42" s="1">
+        <f t="shared" si="2"/>
+        <v>12377696</v>
+      </c>
+      <c r="J42" s="1"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -1518,25 +1667,30 @@
         <v>52</v>
       </c>
       <c r="C43">
-        <v>396676</v>
-      </c>
-      <c r="D43">
-        <f>D42+C43</f>
-        <v>11302699</v>
-      </c>
-      <c r="E43">
-        <f xml:space="preserve"> ROUNDUP(C43 * 0.1, 0)</f>
-        <v>39668</v>
+        <v>495394</v>
+      </c>
+      <c r="D43" s="1">
+        <f t="shared" si="5"/>
+        <v>13111164</v>
+      </c>
+      <c r="E43" s="1">
+        <f t="shared" si="3"/>
+        <v>28074</v>
       </c>
       <c r="F43">
         <v>0</v>
       </c>
       <c r="G43">
-        <f>D43-F43+E43</f>
-        <v>11342367</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>210000</v>
+      </c>
+      <c r="I43" s="1">
+        <f t="shared" si="2"/>
+        <v>12873090</v>
+      </c>
+      <c r="J43" s="1"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -1545,25 +1699,30 @@
         <v>53</v>
       </c>
       <c r="C44">
-        <v>406593</v>
-      </c>
-      <c r="D44">
-        <f>D43+C44</f>
-        <v>11709292</v>
-      </c>
-      <c r="E44">
-        <f xml:space="preserve"> ROUNDUP(C44 * 0.1, 0)</f>
-        <v>40660</v>
+        <v>507779</v>
+      </c>
+      <c r="D44" s="1">
+        <f t="shared" si="5"/>
+        <v>13618943</v>
+      </c>
+      <c r="E44" s="1">
+        <f t="shared" si="3"/>
+        <v>28074</v>
       </c>
       <c r="F44">
         <v>0</v>
       </c>
       <c r="G44">
-        <f>D44-F44+E44</f>
-        <v>11749952</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>210000</v>
+      </c>
+      <c r="I44" s="1">
+        <f t="shared" si="2"/>
+        <v>13380869</v>
+      </c>
+      <c r="J44" s="1"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -1572,25 +1731,30 @@
         <v>54</v>
       </c>
       <c r="C45">
-        <v>416758</v>
-      </c>
-      <c r="D45">
-        <f>D44+C45</f>
-        <v>12126050</v>
-      </c>
-      <c r="E45">
-        <f xml:space="preserve"> ROUNDUP(C45 * 0.1, 0)</f>
-        <v>41676</v>
+        <v>520474</v>
+      </c>
+      <c r="D45" s="1">
+        <f t="shared" si="5"/>
+        <v>14139417</v>
+      </c>
+      <c r="E45" s="1">
+        <f t="shared" si="3"/>
+        <v>28074</v>
       </c>
       <c r="F45">
         <v>0</v>
       </c>
       <c r="G45">
-        <f>D45-F45+E45</f>
-        <v>12167726</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>210000</v>
+      </c>
+      <c r="I45" s="1">
+        <f t="shared" si="2"/>
+        <v>13901343</v>
+      </c>
+      <c r="J45" s="1"/>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -1599,25 +1763,30 @@
         <v>55</v>
       </c>
       <c r="C46">
-        <v>427177</v>
-      </c>
-      <c r="D46">
-        <f>D45+C46</f>
-        <v>12553227</v>
-      </c>
-      <c r="E46">
-        <f xml:space="preserve"> ROUNDUP(C46 * 0.1, 0)</f>
-        <v>42718</v>
+        <v>533485</v>
+      </c>
+      <c r="D46" s="1">
+        <f t="shared" si="5"/>
+        <v>14672902</v>
+      </c>
+      <c r="E46" s="1">
+        <f t="shared" si="3"/>
+        <v>28074</v>
       </c>
       <c r="F46">
         <v>0</v>
       </c>
       <c r="G46">
-        <f>D46-F46+E46</f>
-        <v>12595945</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>210000</v>
+      </c>
+      <c r="I46" s="1">
+        <f t="shared" si="2"/>
+        <v>14434828</v>
+      </c>
+      <c r="J46" s="1"/>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -1626,25 +1795,30 @@
         <v>56</v>
       </c>
       <c r="C47">
-        <v>437856</v>
-      </c>
-      <c r="D47">
-        <f>D46+C47</f>
-        <v>12991083</v>
-      </c>
-      <c r="E47">
-        <f xml:space="preserve"> ROUNDUP(C47 * 0.1, 0)</f>
-        <v>43786</v>
+        <v>546823</v>
+      </c>
+      <c r="D47" s="1">
+        <f t="shared" si="5"/>
+        <v>15219725</v>
+      </c>
+      <c r="E47" s="1">
+        <f t="shared" si="3"/>
+        <v>28074</v>
       </c>
       <c r="F47">
         <v>0</v>
       </c>
       <c r="G47">
-        <f>D47-F47+E47</f>
-        <v>13034869</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>210000</v>
+      </c>
+      <c r="I47" s="1">
+        <f t="shared" si="2"/>
+        <v>14981651</v>
+      </c>
+      <c r="J47" s="1"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48">
         <f t="shared" si="0"/>
         <v>46</v>
@@ -1653,25 +1827,30 @@
         <v>57</v>
       </c>
       <c r="C48">
-        <v>448803</v>
-      </c>
-      <c r="D48">
-        <f>D47+C48</f>
-        <v>13439886</v>
-      </c>
-      <c r="E48">
-        <f xml:space="preserve"> ROUNDUP(C48 * 0.1, 0)</f>
-        <v>44881</v>
+        <v>560493</v>
+      </c>
+      <c r="D48" s="1">
+        <f t="shared" si="5"/>
+        <v>15780218</v>
+      </c>
+      <c r="E48" s="1">
+        <f t="shared" si="3"/>
+        <v>28074</v>
       </c>
       <c r="F48">
         <v>0</v>
       </c>
       <c r="G48">
-        <f>D48-F48+E48</f>
-        <v>13484767</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>210000</v>
+      </c>
+      <c r="I48" s="1">
+        <f t="shared" si="2"/>
+        <v>15542144</v>
+      </c>
+      <c r="J48" s="1"/>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49">
         <f t="shared" si="0"/>
         <v>47</v>
@@ -1680,25 +1859,30 @@
         <v>58</v>
       </c>
       <c r="C49">
-        <v>460023</v>
-      </c>
-      <c r="D49">
-        <f>D48+C49</f>
-        <v>13899909</v>
-      </c>
-      <c r="E49">
-        <f xml:space="preserve"> ROUNDUP(C49 * 0.1, 0)</f>
-        <v>46003</v>
+        <v>574505</v>
+      </c>
+      <c r="D49" s="1">
+        <f t="shared" si="5"/>
+        <v>16354723</v>
+      </c>
+      <c r="E49" s="1">
+        <f t="shared" si="3"/>
+        <v>28074</v>
       </c>
       <c r="F49">
         <v>0</v>
       </c>
       <c r="G49">
-        <f>D49-F49+E49</f>
-        <v>13945912</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>210000</v>
+      </c>
+      <c r="I49" s="1">
+        <f t="shared" si="2"/>
+        <v>16116649</v>
+      </c>
+      <c r="J49" s="1"/>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50">
         <f t="shared" si="0"/>
         <v>48</v>
@@ -1707,25 +1891,30 @@
         <v>59</v>
       </c>
       <c r="C50">
-        <v>471523</v>
-      </c>
-      <c r="D50">
-        <f>D49+C50</f>
-        <v>14371432</v>
-      </c>
-      <c r="E50">
-        <f xml:space="preserve"> ROUNDUP(C50 * 0.1, 0)</f>
-        <v>47153</v>
+        <v>588868</v>
+      </c>
+      <c r="D50" s="1">
+        <f t="shared" si="5"/>
+        <v>16943591</v>
+      </c>
+      <c r="E50" s="1">
+        <f t="shared" si="3"/>
+        <v>28074</v>
       </c>
       <c r="F50">
         <v>0</v>
       </c>
       <c r="G50">
-        <f>D50-F50+E50</f>
-        <v>14418585</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>210000</v>
+      </c>
+      <c r="I50" s="1">
+        <f t="shared" si="2"/>
+        <v>16705517</v>
+      </c>
+      <c r="J50" s="1"/>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51">
         <f t="shared" si="0"/>
         <v>49</v>
@@ -1734,25 +1923,30 @@
         <v>60</v>
       </c>
       <c r="C51">
-        <v>483311</v>
-      </c>
-      <c r="D51">
-        <f>D50+C51</f>
-        <v>14854743</v>
-      </c>
-      <c r="E51">
-        <f xml:space="preserve"> ROUNDUP(C51 * 0.1, 0)</f>
-        <v>48332</v>
+        <v>603590</v>
+      </c>
+      <c r="D51" s="1">
+        <f t="shared" si="5"/>
+        <v>17547181</v>
+      </c>
+      <c r="E51" s="1">
+        <f t="shared" si="3"/>
+        <v>28074</v>
       </c>
       <c r="F51">
         <v>0</v>
       </c>
       <c r="G51">
-        <f>D51-F51+E51</f>
-        <v>14903075</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>210000</v>
+      </c>
+      <c r="I51" s="1">
+        <f t="shared" si="2"/>
+        <v>17309107</v>
+      </c>
+      <c r="J51" s="1"/>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52">
         <f t="shared" si="0"/>
         <v>50</v>
@@ -1761,25 +1955,30 @@
         <v>61</v>
       </c>
       <c r="C52">
-        <v>495394</v>
-      </c>
-      <c r="D52">
-        <f>D51+C52</f>
-        <v>15350137</v>
-      </c>
-      <c r="E52">
-        <f xml:space="preserve"> ROUNDUP(C52 * 0.1, 0)</f>
-        <v>49540</v>
+        <v>618680</v>
+      </c>
+      <c r="D52" s="1">
+        <f t="shared" si="5"/>
+        <v>18165861</v>
+      </c>
+      <c r="E52" s="1">
+        <f t="shared" si="3"/>
+        <v>28074</v>
       </c>
       <c r="F52">
         <v>0</v>
       </c>
       <c r="G52">
-        <f>D52-F52+E52</f>
-        <v>15399677</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>210000</v>
+      </c>
+      <c r="I52" s="1">
+        <f t="shared" si="2"/>
+        <v>17927787</v>
+      </c>
+      <c r="J52" s="1"/>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53">
         <f t="shared" si="0"/>
         <v>51</v>
@@ -1788,25 +1987,30 @@
         <v>62</v>
       </c>
       <c r="C53">
-        <v>507779</v>
-      </c>
-      <c r="D53">
-        <f>D52+C53</f>
-        <v>15857916</v>
-      </c>
-      <c r="E53">
-        <f xml:space="preserve"> ROUNDUP(C53 * 0.1, 0)</f>
-        <v>50778</v>
+        <v>634147</v>
+      </c>
+      <c r="D53" s="1">
+        <f t="shared" si="5"/>
+        <v>18800008</v>
+      </c>
+      <c r="E53" s="1">
+        <f t="shared" si="3"/>
+        <v>28074</v>
       </c>
       <c r="F53">
         <v>0</v>
       </c>
       <c r="G53">
-        <f>D53-F53+E53</f>
-        <v>15908694</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>210000</v>
+      </c>
+      <c r="I53" s="1">
+        <f t="shared" si="2"/>
+        <v>18561934</v>
+      </c>
+      <c r="J53" s="1"/>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54">
         <f t="shared" si="0"/>
         <v>52</v>
@@ -1815,25 +2019,30 @@
         <v>63</v>
       </c>
       <c r="C54">
-        <v>520474</v>
-      </c>
-      <c r="D54">
-        <f>D53+C54</f>
-        <v>16378390</v>
-      </c>
-      <c r="E54">
-        <f xml:space="preserve"> ROUNDUP(C54 * 0.1, 0)</f>
-        <v>52048</v>
+        <v>650000</v>
+      </c>
+      <c r="D54" s="1">
+        <f t="shared" si="5"/>
+        <v>19450008</v>
+      </c>
+      <c r="E54" s="1">
+        <f t="shared" si="3"/>
+        <v>28074</v>
       </c>
       <c r="F54">
         <v>0</v>
       </c>
       <c r="G54">
-        <f>D54-F54+E54</f>
-        <v>16430438</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>210000</v>
+      </c>
+      <c r="I54" s="1">
+        <f t="shared" si="2"/>
+        <v>19211934</v>
+      </c>
+      <c r="J54" s="1"/>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55">
         <f t="shared" si="0"/>
         <v>53</v>
@@ -1842,25 +2051,30 @@
         <v>64</v>
       </c>
       <c r="C55">
-        <v>533485</v>
-      </c>
-      <c r="D55">
-        <f>D54+C55</f>
-        <v>16911875</v>
-      </c>
-      <c r="E55">
-        <f xml:space="preserve"> ROUNDUP(C55 * 0.1, 0)</f>
-        <v>53349</v>
+        <v>666250</v>
+      </c>
+      <c r="D55" s="1">
+        <f t="shared" si="5"/>
+        <v>20116258</v>
+      </c>
+      <c r="E55" s="1">
+        <f t="shared" si="3"/>
+        <v>28074</v>
       </c>
       <c r="F55">
         <v>0</v>
       </c>
       <c r="G55">
-        <f>D55-F55+E55</f>
-        <v>16965224</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>210000</v>
+      </c>
+      <c r="I55" s="1">
+        <f t="shared" si="2"/>
+        <v>19878184</v>
+      </c>
+      <c r="J55" s="1"/>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56">
         <f t="shared" si="0"/>
         <v>54</v>
@@ -1869,25 +2083,30 @@
         <v>65</v>
       </c>
       <c r="C56">
-        <v>546823</v>
-      </c>
-      <c r="D56">
-        <f>D55+C56</f>
-        <v>17458698</v>
-      </c>
-      <c r="E56">
-        <f xml:space="preserve"> ROUNDUP(C56 * 0.1, 0)</f>
-        <v>54683</v>
+        <v>682906</v>
+      </c>
+      <c r="D56" s="1">
+        <f t="shared" si="5"/>
+        <v>20799164</v>
+      </c>
+      <c r="E56" s="1">
+        <f t="shared" si="3"/>
+        <v>28074</v>
       </c>
       <c r="F56">
         <v>0</v>
       </c>
       <c r="G56">
-        <f>D56-F56+E56</f>
-        <v>17513381</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>210000</v>
+      </c>
+      <c r="I56" s="1">
+        <f t="shared" si="2"/>
+        <v>20561090</v>
+      </c>
+      <c r="J56" s="1"/>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57">
         <f t="shared" si="0"/>
         <v>55</v>
@@ -1896,25 +2115,30 @@
         <v>66</v>
       </c>
       <c r="C57">
-        <v>560493</v>
-      </c>
-      <c r="D57">
-        <f>D56+C57</f>
-        <v>18019191</v>
-      </c>
-      <c r="E57">
-        <f xml:space="preserve"> ROUNDUP(C57 * 0.1, 0)</f>
-        <v>56050</v>
+        <v>699979</v>
+      </c>
+      <c r="D57" s="1">
+        <f t="shared" si="5"/>
+        <v>21499143</v>
+      </c>
+      <c r="E57" s="1">
+        <f t="shared" si="3"/>
+        <v>28074</v>
       </c>
       <c r="F57">
         <v>0</v>
       </c>
       <c r="G57">
-        <f>D57-F57+E57</f>
-        <v>18075241</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>210000</v>
+      </c>
+      <c r="I57" s="1">
+        <f t="shared" si="2"/>
+        <v>21261069</v>
+      </c>
+      <c r="J57" s="1"/>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58">
         <f t="shared" si="0"/>
         <v>56</v>
@@ -1923,25 +2147,30 @@
         <v>67</v>
       </c>
       <c r="C58">
-        <v>574505</v>
-      </c>
-      <c r="D58">
-        <f>D57+C58</f>
-        <v>18593696</v>
-      </c>
-      <c r="E58">
-        <f xml:space="preserve"> ROUNDUP(C58 * 0.1, 0)</f>
-        <v>57451</v>
+        <v>717479</v>
+      </c>
+      <c r="D58" s="1">
+        <f t="shared" si="5"/>
+        <v>22216622</v>
+      </c>
+      <c r="E58" s="1">
+        <f t="shared" si="3"/>
+        <v>28074</v>
       </c>
       <c r="F58">
         <v>0</v>
       </c>
       <c r="G58">
-        <f>D58-F58+E58</f>
-        <v>18651147</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>210000</v>
+      </c>
+      <c r="I58" s="1">
+        <f t="shared" si="2"/>
+        <v>21978548</v>
+      </c>
+      <c r="J58" s="1"/>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59">
         <f t="shared" si="0"/>
         <v>57</v>
@@ -1950,25 +2179,30 @@
         <v>68</v>
       </c>
       <c r="C59">
-        <v>588868</v>
-      </c>
-      <c r="D59">
-        <f>D58+C59</f>
-        <v>19182564</v>
-      </c>
-      <c r="E59">
-        <f xml:space="preserve"> ROUNDUP(C59 * 0.1, 0)</f>
-        <v>58887</v>
+        <v>735416</v>
+      </c>
+      <c r="D59" s="1">
+        <f t="shared" si="5"/>
+        <v>22952038</v>
+      </c>
+      <c r="E59" s="1">
+        <f t="shared" si="3"/>
+        <v>28074</v>
       </c>
       <c r="F59">
         <v>0</v>
       </c>
       <c r="G59">
-        <f>D59-F59+E59</f>
-        <v>19241451</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>210000</v>
+      </c>
+      <c r="I59" s="1">
+        <f t="shared" si="2"/>
+        <v>22713964</v>
+      </c>
+      <c r="J59" s="1"/>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60">
         <f t="shared" si="0"/>
         <v>58</v>
@@ -1977,25 +2211,30 @@
         <v>69</v>
       </c>
       <c r="C60">
-        <v>603590</v>
-      </c>
-      <c r="D60">
-        <f>D59+C60</f>
-        <v>19786154</v>
-      </c>
-      <c r="E60">
-        <f xml:space="preserve"> ROUNDUP(C60 * 0.1, 0)</f>
-        <v>60359</v>
+        <v>753801</v>
+      </c>
+      <c r="D60" s="1">
+        <f t="shared" si="5"/>
+        <v>23705839</v>
+      </c>
+      <c r="E60" s="1">
+        <f t="shared" si="3"/>
+        <v>28074</v>
       </c>
       <c r="F60">
         <v>0</v>
       </c>
       <c r="G60">
-        <f>D60-F60+E60</f>
-        <v>19846513</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>210000</v>
+      </c>
+      <c r="I60" s="1">
+        <f t="shared" si="2"/>
+        <v>23467765</v>
+      </c>
+      <c r="J60" s="1"/>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61">
         <f t="shared" si="0"/>
         <v>59</v>
@@ -2004,23 +2243,28 @@
         <v>70</v>
       </c>
       <c r="C61">
-        <v>618680</v>
-      </c>
-      <c r="D61">
-        <f>D60+C61</f>
-        <v>20404834</v>
-      </c>
-      <c r="E61">
-        <f xml:space="preserve"> ROUNDUP(C61 * 0.1, 0)</f>
-        <v>61868</v>
+        <v>772646</v>
+      </c>
+      <c r="D61" s="1">
+        <f t="shared" si="5"/>
+        <v>24478485</v>
+      </c>
+      <c r="E61" s="1">
+        <f t="shared" si="3"/>
+        <v>28074</v>
       </c>
       <c r="F61">
         <v>0</v>
       </c>
       <c r="G61">
-        <f>D61-F61+E61</f>
-        <v>20466702</v>
-      </c>
+        <f t="shared" si="4"/>
+        <v>210000</v>
+      </c>
+      <c r="I61" s="1">
+        <f t="shared" si="2"/>
+        <v>24240411</v>
+      </c>
+      <c r="J61" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/fc/debug_saving.xlsx
+++ b/fc/debug_saving.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kevin\GoI\InsuranceGame\fc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Projects\InsuranceGame\fc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56CD0C41-5459-4FC9-B8C5-13274136F2BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A734A1F2-15C9-42A8-8451-BA9C91410E75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19310" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{BBE9402B-D6B4-4641-BA12-C10FFF21168E}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15600" xr2:uid="{BBE9402B-D6B4-4641-BA12-C10FFF21168E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,15 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -400,7 +409,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{392C735B-4C7D-4DFC-B895-F845E7471A63}">
   <dimension ref="A1:J61"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="U30" sqref="U30"/>
     </sheetView>
   </sheetViews>
@@ -409,7 +418,7 @@
     <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -476,7 +485,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
-        <f t="shared" ref="A4:B61" si="0">A3+1</f>
+        <f t="shared" ref="A4:A61" si="0">A3+1</f>
         <v>2</v>
       </c>
       <c r="B4" s="1">
@@ -557,7 +566,7 @@
         <v>12000</v>
       </c>
       <c r="I7" s="1">
-        <f>D7-F7-E7</f>
+        <f t="shared" ref="I7:I13" si="2">D7-F7-E7</f>
         <v>1137792</v>
       </c>
       <c r="J7" s="1"/>
@@ -585,7 +594,7 @@
         <v>12000</v>
       </c>
       <c r="I8">
-        <f>D8-F8-E8</f>
+        <f t="shared" si="2"/>
         <v>1346537</v>
       </c>
       <c r="J8" s="1"/>
@@ -613,7 +622,7 @@
         <v>12000</v>
       </c>
       <c r="I9">
-        <f>D9-F9-E9</f>
+        <f t="shared" si="2"/>
         <v>1560500</v>
       </c>
       <c r="J9" s="1"/>
@@ -641,7 +650,7 @@
         <v>12000</v>
       </c>
       <c r="I10">
-        <f>D10-F10-E10</f>
+        <f t="shared" si="2"/>
         <v>1779813</v>
       </c>
       <c r="J10" s="1"/>
@@ -669,7 +678,7 @@
         <v>12000</v>
       </c>
       <c r="I11">
-        <f>D11-F11-E11</f>
+        <f t="shared" si="2"/>
         <v>2004608</v>
       </c>
       <c r="J11" s="1"/>
@@ -697,7 +706,7 @@
         <v>12000</v>
       </c>
       <c r="I12">
-        <f>D12-F12-E12</f>
+        <f t="shared" si="2"/>
         <v>2235023</v>
       </c>
       <c r="J12" s="1"/>
@@ -725,7 +734,7 @@
         <v>12000</v>
       </c>
       <c r="I13">
-        <f>D13-F13-E13</f>
+        <f t="shared" si="2"/>
         <v>2471199</v>
       </c>
       <c r="J13" s="1"/>
@@ -818,7 +827,7 @@
         <v>90000</v>
       </c>
       <c r="I16" s="1">
-        <f t="shared" ref="I15:I61" si="2">D16-F16-E16-G16</f>
+        <f t="shared" ref="I16:I61" si="3">D16-F16-E16-G16</f>
         <v>3125746</v>
       </c>
       <c r="J16" s="1"/>
@@ -849,7 +858,7 @@
         <v>90000</v>
       </c>
       <c r="I17" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3386440</v>
       </c>
       <c r="J17" s="1"/>
@@ -880,7 +889,7 @@
         <v>90000</v>
       </c>
       <c r="I18" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3653651</v>
       </c>
       <c r="J18" s="1"/>
@@ -911,7 +920,7 @@
         <v>90000</v>
       </c>
       <c r="I19" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3927542</v>
       </c>
       <c r="J19" s="1"/>
@@ -943,7 +952,7 @@
         <v>90000</v>
       </c>
       <c r="I20" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4180207</v>
       </c>
       <c r="J20" s="1"/>
@@ -975,7 +984,7 @@
         <v>90000</v>
       </c>
       <c r="I21" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4467964</v>
       </c>
       <c r="J21" s="1"/>
@@ -996,7 +1005,7 @@
         <v>4892989</v>
       </c>
       <c r="E22" s="1">
-        <f t="shared" ref="E22:E61" si="3">E21</f>
+        <f t="shared" ref="E22:E61" si="4">E21</f>
         <v>28074</v>
       </c>
       <c r="F22">
@@ -1028,7 +1037,7 @@
         <v>5195314</v>
       </c>
       <c r="E23" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>28074</v>
       </c>
       <c r="F23">
@@ -1039,7 +1048,7 @@
         <v>90000</v>
       </c>
       <c r="I23" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5065240</v>
       </c>
       <c r="J23" s="1"/>
@@ -1060,7 +1069,7 @@
         <v>5505197</v>
       </c>
       <c r="E24" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>28074</v>
       </c>
       <c r="F24">
@@ -1071,7 +1080,7 @@
         <v>90000</v>
       </c>
       <c r="I24" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5375123</v>
       </c>
       <c r="J24" s="1"/>
@@ -1092,7 +1101,7 @@
         <v>5822827</v>
       </c>
       <c r="E25" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>28074</v>
       </c>
       <c r="F25">
@@ -1103,7 +1112,7 @@
         <v>90000</v>
       </c>
       <c r="I25" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5692753</v>
       </c>
       <c r="J25" s="1"/>
@@ -1124,7 +1133,7 @@
         <v>6148398</v>
       </c>
       <c r="E26" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>28074</v>
       </c>
       <c r="F26">
@@ -1136,7 +1145,7 @@
         <v>210000</v>
       </c>
       <c r="I26" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5898324</v>
       </c>
       <c r="J26" s="1"/>
@@ -1157,7 +1166,7 @@
         <v>6482108</v>
       </c>
       <c r="E27" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>28074</v>
       </c>
       <c r="F27">
@@ -1165,11 +1174,11 @@
         <v>12000</v>
       </c>
       <c r="G27">
-        <f t="shared" ref="G27:G61" si="4">120000+90000</f>
+        <f t="shared" ref="G27:G61" si="5">120000+90000</f>
         <v>210000</v>
       </c>
       <c r="I27" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6232034</v>
       </c>
       <c r="J27" s="1"/>
@@ -1190,7 +1199,7 @@
         <v>6824161</v>
       </c>
       <c r="E28" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>28074</v>
       </c>
       <c r="F28">
@@ -1198,11 +1207,11 @@
         <v>12000</v>
       </c>
       <c r="G28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>210000</v>
       </c>
       <c r="I28" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6574087</v>
       </c>
       <c r="J28" s="1"/>
@@ -1223,7 +1232,7 @@
         <v>7174765</v>
       </c>
       <c r="E29" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>28074</v>
       </c>
       <c r="F29">
@@ -1231,11 +1240,11 @@
         <v>12000</v>
       </c>
       <c r="G29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>210000</v>
       </c>
       <c r="I29" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6924691</v>
       </c>
       <c r="J29" s="1"/>
@@ -1256,7 +1265,7 @@
         <v>7534134</v>
       </c>
       <c r="E30" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>28074</v>
       </c>
       <c r="F30">
@@ -1264,11 +1273,11 @@
         <v>12000</v>
       </c>
       <c r="G30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>210000</v>
       </c>
       <c r="I30" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7284060</v>
       </c>
       <c r="J30" s="1"/>
@@ -1289,7 +1298,7 @@
         <v>7902487</v>
       </c>
       <c r="E31" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>28074</v>
       </c>
       <c r="F31">
@@ -1297,11 +1306,11 @@
         <v>12000</v>
       </c>
       <c r="G31">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>210000</v>
       </c>
       <c r="I31" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7652413</v>
       </c>
       <c r="J31" s="1"/>
@@ -1322,18 +1331,18 @@
         <v>8280049</v>
       </c>
       <c r="E32" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>28074</v>
       </c>
       <c r="F32">
         <v>0</v>
       </c>
       <c r="G32">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>210000</v>
       </c>
       <c r="I32" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8041975</v>
       </c>
       <c r="J32" s="1"/>
@@ -1354,18 +1363,18 @@
         <v>8667050</v>
       </c>
       <c r="E33" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>28074</v>
       </c>
       <c r="F33">
         <v>0</v>
       </c>
       <c r="G33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>210000</v>
       </c>
       <c r="I33" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8428976</v>
       </c>
       <c r="J33" s="1"/>
@@ -1386,18 +1395,18 @@
         <v>9063726</v>
       </c>
       <c r="E34" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>28074</v>
       </c>
       <c r="F34">
         <v>0</v>
       </c>
       <c r="G34">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>210000</v>
       </c>
       <c r="I34" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8825652</v>
       </c>
       <c r="J34" s="1"/>
@@ -1414,22 +1423,22 @@
         <v>406593</v>
       </c>
       <c r="D35" s="1">
-        <f t="shared" ref="D35:D66" si="5">D34+C35</f>
+        <f t="shared" ref="D35:D61" si="6">D34+C35</f>
         <v>9470319</v>
       </c>
       <c r="E35" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>28074</v>
       </c>
       <c r="F35">
         <v>0</v>
       </c>
       <c r="G35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>210000</v>
       </c>
       <c r="I35" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9232245</v>
       </c>
       <c r="J35" s="1"/>
@@ -1446,22 +1455,22 @@
         <v>416758</v>
       </c>
       <c r="D36" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>9887077</v>
       </c>
       <c r="E36" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>28074</v>
       </c>
       <c r="F36">
         <v>0</v>
       </c>
       <c r="G36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>210000</v>
       </c>
       <c r="I36" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9649003</v>
       </c>
       <c r="J36" s="1"/>
@@ -1478,22 +1487,22 @@
         <v>427177</v>
       </c>
       <c r="D37" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>10314254</v>
       </c>
       <c r="E37" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>28074</v>
       </c>
       <c r="F37">
         <v>0</v>
       </c>
       <c r="G37">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>210000</v>
       </c>
       <c r="I37" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10076180</v>
       </c>
       <c r="J37" s="1"/>
@@ -1510,22 +1519,22 @@
         <v>437856</v>
       </c>
       <c r="D38" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>10752110</v>
       </c>
       <c r="E38" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>28074</v>
       </c>
       <c r="F38">
         <v>0</v>
       </c>
       <c r="G38">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>210000</v>
       </c>
       <c r="I38" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10514036</v>
       </c>
       <c r="J38" s="1"/>
@@ -1542,22 +1551,22 @@
         <v>448803</v>
       </c>
       <c r="D39" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>11200913</v>
       </c>
       <c r="E39" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>28074</v>
       </c>
       <c r="F39">
         <v>0</v>
       </c>
       <c r="G39">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>210000</v>
       </c>
       <c r="I39" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10962839</v>
       </c>
       <c r="J39" s="1"/>
@@ -1574,22 +1583,22 @@
         <v>460023</v>
       </c>
       <c r="D40" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>11660936</v>
       </c>
       <c r="E40" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>28074</v>
       </c>
       <c r="F40">
         <v>0</v>
       </c>
       <c r="G40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>210000</v>
       </c>
       <c r="I40" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>11422862</v>
       </c>
       <c r="J40" s="1"/>
@@ -1606,22 +1615,22 @@
         <v>471523</v>
       </c>
       <c r="D41" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>12132459</v>
       </c>
       <c r="E41" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>28074</v>
       </c>
       <c r="F41">
         <v>0</v>
       </c>
       <c r="G41">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>210000</v>
       </c>
       <c r="I41" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>11894385</v>
       </c>
       <c r="J41" s="1"/>
@@ -1638,22 +1647,22 @@
         <v>483311</v>
       </c>
       <c r="D42" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>12615770</v>
       </c>
       <c r="E42" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>28074</v>
       </c>
       <c r="F42">
         <v>0</v>
       </c>
       <c r="G42">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>210000</v>
       </c>
       <c r="I42" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>12377696</v>
       </c>
       <c r="J42" s="1"/>
@@ -1670,22 +1679,22 @@
         <v>495394</v>
       </c>
       <c r="D43" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>13111164</v>
       </c>
       <c r="E43" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>28074</v>
       </c>
       <c r="F43">
         <v>0</v>
       </c>
       <c r="G43">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>210000</v>
       </c>
       <c r="I43" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>12873090</v>
       </c>
       <c r="J43" s="1"/>
@@ -1702,22 +1711,22 @@
         <v>507779</v>
       </c>
       <c r="D44" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>13618943</v>
       </c>
       <c r="E44" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>28074</v>
       </c>
       <c r="F44">
         <v>0</v>
       </c>
       <c r="G44">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>210000</v>
       </c>
       <c r="I44" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>13380869</v>
       </c>
       <c r="J44" s="1"/>
@@ -1734,22 +1743,22 @@
         <v>520474</v>
       </c>
       <c r="D45" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>14139417</v>
       </c>
       <c r="E45" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>28074</v>
       </c>
       <c r="F45">
         <v>0</v>
       </c>
       <c r="G45">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>210000</v>
       </c>
       <c r="I45" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>13901343</v>
       </c>
       <c r="J45" s="1"/>
@@ -1766,22 +1775,22 @@
         <v>533485</v>
       </c>
       <c r="D46" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>14672902</v>
       </c>
       <c r="E46" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>28074</v>
       </c>
       <c r="F46">
         <v>0</v>
       </c>
       <c r="G46">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>210000</v>
       </c>
       <c r="I46" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>14434828</v>
       </c>
       <c r="J46" s="1"/>
@@ -1798,22 +1807,22 @@
         <v>546823</v>
       </c>
       <c r="D47" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>15219725</v>
       </c>
       <c r="E47" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>28074</v>
       </c>
       <c r="F47">
         <v>0</v>
       </c>
       <c r="G47">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>210000</v>
       </c>
       <c r="I47" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>14981651</v>
       </c>
       <c r="J47" s="1"/>
@@ -1830,22 +1839,22 @@
         <v>560493</v>
       </c>
       <c r="D48" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>15780218</v>
       </c>
       <c r="E48" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>28074</v>
       </c>
       <c r="F48">
         <v>0</v>
       </c>
       <c r="G48">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>210000</v>
       </c>
       <c r="I48" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>15542144</v>
       </c>
       <c r="J48" s="1"/>
@@ -1862,22 +1871,22 @@
         <v>574505</v>
       </c>
       <c r="D49" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>16354723</v>
       </c>
       <c r="E49" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>28074</v>
       </c>
       <c r="F49">
         <v>0</v>
       </c>
       <c r="G49">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>210000</v>
       </c>
       <c r="I49" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>16116649</v>
       </c>
       <c r="J49" s="1"/>
@@ -1894,22 +1903,22 @@
         <v>588868</v>
       </c>
       <c r="D50" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>16943591</v>
       </c>
       <c r="E50" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>28074</v>
       </c>
       <c r="F50">
         <v>0</v>
       </c>
       <c r="G50">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>210000</v>
       </c>
       <c r="I50" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>16705517</v>
       </c>
       <c r="J50" s="1"/>
@@ -1926,22 +1935,22 @@
         <v>603590</v>
       </c>
       <c r="D51" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>17547181</v>
       </c>
       <c r="E51" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>28074</v>
       </c>
       <c r="F51">
         <v>0</v>
       </c>
       <c r="G51">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>210000</v>
       </c>
       <c r="I51" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>17309107</v>
       </c>
       <c r="J51" s="1"/>
@@ -1958,22 +1967,22 @@
         <v>618680</v>
       </c>
       <c r="D52" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>18165861</v>
       </c>
       <c r="E52" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>28074</v>
       </c>
       <c r="F52">
         <v>0</v>
       </c>
       <c r="G52">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>210000</v>
       </c>
       <c r="I52" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>17927787</v>
       </c>
       <c r="J52" s="1"/>
@@ -1990,22 +1999,22 @@
         <v>634147</v>
       </c>
       <c r="D53" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>18800008</v>
       </c>
       <c r="E53" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>28074</v>
       </c>
       <c r="F53">
         <v>0</v>
       </c>
       <c r="G53">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>210000</v>
       </c>
       <c r="I53" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>18561934</v>
       </c>
       <c r="J53" s="1"/>
@@ -2022,22 +2031,22 @@
         <v>650000</v>
       </c>
       <c r="D54" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>19450008</v>
       </c>
       <c r="E54" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>28074</v>
       </c>
       <c r="F54">
         <v>0</v>
       </c>
       <c r="G54">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>210000</v>
       </c>
       <c r="I54" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>19211934</v>
       </c>
       <c r="J54" s="1"/>
@@ -2054,22 +2063,22 @@
         <v>666250</v>
       </c>
       <c r="D55" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>20116258</v>
       </c>
       <c r="E55" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>28074</v>
       </c>
       <c r="F55">
         <v>0</v>
       </c>
       <c r="G55">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>210000</v>
       </c>
       <c r="I55" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>19878184</v>
       </c>
       <c r="J55" s="1"/>
@@ -2086,22 +2095,22 @@
         <v>682906</v>
       </c>
       <c r="D56" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>20799164</v>
       </c>
       <c r="E56" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>28074</v>
       </c>
       <c r="F56">
         <v>0</v>
       </c>
       <c r="G56">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>210000</v>
       </c>
       <c r="I56" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>20561090</v>
       </c>
       <c r="J56" s="1"/>
@@ -2118,22 +2127,22 @@
         <v>699979</v>
       </c>
       <c r="D57" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>21499143</v>
       </c>
       <c r="E57" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>28074</v>
       </c>
       <c r="F57">
         <v>0</v>
       </c>
       <c r="G57">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>210000</v>
       </c>
       <c r="I57" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>21261069</v>
       </c>
       <c r="J57" s="1"/>
@@ -2150,22 +2159,22 @@
         <v>717479</v>
       </c>
       <c r="D58" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>22216622</v>
       </c>
       <c r="E58" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>28074</v>
       </c>
       <c r="F58">
         <v>0</v>
       </c>
       <c r="G58">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>210000</v>
       </c>
       <c r="I58" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>21978548</v>
       </c>
       <c r="J58" s="1"/>
@@ -2182,22 +2191,22 @@
         <v>735416</v>
       </c>
       <c r="D59" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>22952038</v>
       </c>
       <c r="E59" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>28074</v>
       </c>
       <c r="F59">
         <v>0</v>
       </c>
       <c r="G59">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>210000</v>
       </c>
       <c r="I59" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>22713964</v>
       </c>
       <c r="J59" s="1"/>
@@ -2214,22 +2223,22 @@
         <v>753801</v>
       </c>
       <c r="D60" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>23705839</v>
       </c>
       <c r="E60" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>28074</v>
       </c>
       <c r="F60">
         <v>0</v>
       </c>
       <c r="G60">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>210000</v>
       </c>
       <c r="I60" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>23467765</v>
       </c>
       <c r="J60" s="1"/>
@@ -2246,22 +2255,22 @@
         <v>772646</v>
       </c>
       <c r="D61" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>24478485</v>
       </c>
       <c r="E61" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>28074</v>
       </c>
       <c r="F61">
         <v>0</v>
       </c>
       <c r="G61">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>210000</v>
       </c>
       <c r="I61" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>24240411</v>
       </c>
       <c r="J61" s="1"/>

--- a/fc/debug_saving.xlsx
+++ b/fc/debug_saving.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Projects\InsuranceGame\fc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kevin\GoI\InsuranceGame\fc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A734A1F2-15C9-42A8-8451-BA9C91410E75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F4B7D1A-13A4-4964-B14D-5766E1596DAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15600" xr2:uid="{BBE9402B-D6B4-4641-BA12-C10FFF21168E}"/>
+    <workbookView xWindow="-28800" yWindow="345" windowWidth="58050" windowHeight="22980" xr2:uid="{BBE9402B-D6B4-4641-BA12-C10FFF21168E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,21 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>step</t>
   </si>
@@ -54,7 +45,10 @@
     <t>new kid</t>
   </si>
   <si>
-    <t>car accident</t>
+    <t>car accident + leg broke</t>
+  </si>
+  <si>
+    <t>Saving ended</t>
   </si>
 </sst>
 </file>
@@ -410,7 +404,7 @@
   <dimension ref="A1:J61"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="U30" sqref="U30"/>
+      <selection activeCell="Q25" sqref="Q25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -418,6 +412,8 @@
     <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -440,6 +436,9 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
       <c r="I1" t="s">
         <v>4</v>
       </c>
@@ -1309,9 +1308,12 @@
         <f t="shared" si="5"/>
         <v>210000</v>
       </c>
+      <c r="H31">
+        <v>315662</v>
+      </c>
       <c r="I31" s="1">
-        <f t="shared" si="3"/>
-        <v>7652413</v>
+        <f>D31-F31-E31-G31+$H$31</f>
+        <v>7968075</v>
       </c>
       <c r="J31" s="1"/>
     </row>
@@ -1342,8 +1344,8 @@
         <v>210000</v>
       </c>
       <c r="I32" s="1">
-        <f t="shared" si="3"/>
-        <v>8041975</v>
+        <f t="shared" ref="I32:I61" si="6">D32-F32-E32-G32+$H$31</f>
+        <v>8357637</v>
       </c>
       <c r="J32" s="1"/>
     </row>
@@ -1374,8 +1376,8 @@
         <v>210000</v>
       </c>
       <c r="I33" s="1">
-        <f t="shared" si="3"/>
-        <v>8428976</v>
+        <f t="shared" si="6"/>
+        <v>8744638</v>
       </c>
       <c r="J33" s="1"/>
     </row>
@@ -1406,8 +1408,8 @@
         <v>210000</v>
       </c>
       <c r="I34" s="1">
-        <f t="shared" si="3"/>
-        <v>8825652</v>
+        <f t="shared" si="6"/>
+        <v>9141314</v>
       </c>
       <c r="J34" s="1"/>
     </row>
@@ -1423,7 +1425,7 @@
         <v>406593</v>
       </c>
       <c r="D35" s="1">
-        <f t="shared" ref="D35:D61" si="6">D34+C35</f>
+        <f t="shared" ref="D35:D61" si="7">D34+C35</f>
         <v>9470319</v>
       </c>
       <c r="E35" s="1">
@@ -1438,8 +1440,8 @@
         <v>210000</v>
       </c>
       <c r="I35" s="1">
-        <f t="shared" si="3"/>
-        <v>9232245</v>
+        <f t="shared" si="6"/>
+        <v>9547907</v>
       </c>
       <c r="J35" s="1"/>
     </row>
@@ -1455,7 +1457,7 @@
         <v>416758</v>
       </c>
       <c r="D36" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>9887077</v>
       </c>
       <c r="E36" s="1">
@@ -1470,8 +1472,8 @@
         <v>210000</v>
       </c>
       <c r="I36" s="1">
-        <f t="shared" si="3"/>
-        <v>9649003</v>
+        <f t="shared" si="6"/>
+        <v>9964665</v>
       </c>
       <c r="J36" s="1"/>
     </row>
@@ -1487,7 +1489,7 @@
         <v>427177</v>
       </c>
       <c r="D37" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>10314254</v>
       </c>
       <c r="E37" s="1">
@@ -1502,8 +1504,8 @@
         <v>210000</v>
       </c>
       <c r="I37" s="1">
-        <f t="shared" si="3"/>
-        <v>10076180</v>
+        <f t="shared" si="6"/>
+        <v>10391842</v>
       </c>
       <c r="J37" s="1"/>
     </row>
@@ -1519,7 +1521,7 @@
         <v>437856</v>
       </c>
       <c r="D38" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>10752110</v>
       </c>
       <c r="E38" s="1">
@@ -1534,8 +1536,8 @@
         <v>210000</v>
       </c>
       <c r="I38" s="1">
-        <f t="shared" si="3"/>
-        <v>10514036</v>
+        <f t="shared" si="6"/>
+        <v>10829698</v>
       </c>
       <c r="J38" s="1"/>
     </row>
@@ -1551,7 +1553,7 @@
         <v>448803</v>
       </c>
       <c r="D39" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>11200913</v>
       </c>
       <c r="E39" s="1">
@@ -1566,8 +1568,8 @@
         <v>210000</v>
       </c>
       <c r="I39" s="1">
-        <f t="shared" si="3"/>
-        <v>10962839</v>
+        <f t="shared" si="6"/>
+        <v>11278501</v>
       </c>
       <c r="J39" s="1"/>
     </row>
@@ -1583,7 +1585,7 @@
         <v>460023</v>
       </c>
       <c r="D40" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>11660936</v>
       </c>
       <c r="E40" s="1">
@@ -1598,8 +1600,8 @@
         <v>210000</v>
       </c>
       <c r="I40" s="1">
-        <f t="shared" si="3"/>
-        <v>11422862</v>
+        <f t="shared" si="6"/>
+        <v>11738524</v>
       </c>
       <c r="J40" s="1"/>
     </row>
@@ -1615,7 +1617,7 @@
         <v>471523</v>
       </c>
       <c r="D41" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>12132459</v>
       </c>
       <c r="E41" s="1">
@@ -1630,8 +1632,8 @@
         <v>210000</v>
       </c>
       <c r="I41" s="1">
-        <f t="shared" si="3"/>
-        <v>11894385</v>
+        <f t="shared" si="6"/>
+        <v>12210047</v>
       </c>
       <c r="J41" s="1"/>
     </row>
@@ -1647,7 +1649,7 @@
         <v>483311</v>
       </c>
       <c r="D42" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>12615770</v>
       </c>
       <c r="E42" s="1">
@@ -1662,8 +1664,8 @@
         <v>210000</v>
       </c>
       <c r="I42" s="1">
-        <f t="shared" si="3"/>
-        <v>12377696</v>
+        <f t="shared" si="6"/>
+        <v>12693358</v>
       </c>
       <c r="J42" s="1"/>
     </row>
@@ -1679,7 +1681,7 @@
         <v>495394</v>
       </c>
       <c r="D43" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>13111164</v>
       </c>
       <c r="E43" s="1">
@@ -1694,8 +1696,8 @@
         <v>210000</v>
       </c>
       <c r="I43" s="1">
-        <f t="shared" si="3"/>
-        <v>12873090</v>
+        <f t="shared" si="6"/>
+        <v>13188752</v>
       </c>
       <c r="J43" s="1"/>
     </row>
@@ -1711,7 +1713,7 @@
         <v>507779</v>
       </c>
       <c r="D44" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>13618943</v>
       </c>
       <c r="E44" s="1">
@@ -1726,8 +1728,8 @@
         <v>210000</v>
       </c>
       <c r="I44" s="1">
-        <f t="shared" si="3"/>
-        <v>13380869</v>
+        <f t="shared" si="6"/>
+        <v>13696531</v>
       </c>
       <c r="J44" s="1"/>
     </row>
@@ -1743,7 +1745,7 @@
         <v>520474</v>
       </c>
       <c r="D45" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>14139417</v>
       </c>
       <c r="E45" s="1">
@@ -1758,8 +1760,8 @@
         <v>210000</v>
       </c>
       <c r="I45" s="1">
-        <f t="shared" si="3"/>
-        <v>13901343</v>
+        <f t="shared" si="6"/>
+        <v>14217005</v>
       </c>
       <c r="J45" s="1"/>
     </row>
@@ -1775,7 +1777,7 @@
         <v>533485</v>
       </c>
       <c r="D46" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>14672902</v>
       </c>
       <c r="E46" s="1">
@@ -1790,8 +1792,8 @@
         <v>210000</v>
       </c>
       <c r="I46" s="1">
-        <f t="shared" si="3"/>
-        <v>14434828</v>
+        <f t="shared" si="6"/>
+        <v>14750490</v>
       </c>
       <c r="J46" s="1"/>
     </row>
@@ -1807,7 +1809,7 @@
         <v>546823</v>
       </c>
       <c r="D47" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>15219725</v>
       </c>
       <c r="E47" s="1">
@@ -1822,8 +1824,8 @@
         <v>210000</v>
       </c>
       <c r="I47" s="1">
-        <f t="shared" si="3"/>
-        <v>14981651</v>
+        <f t="shared" si="6"/>
+        <v>15297313</v>
       </c>
       <c r="J47" s="1"/>
     </row>
@@ -1839,7 +1841,7 @@
         <v>560493</v>
       </c>
       <c r="D48" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>15780218</v>
       </c>
       <c r="E48" s="1">
@@ -1854,8 +1856,8 @@
         <v>210000</v>
       </c>
       <c r="I48" s="1">
-        <f t="shared" si="3"/>
-        <v>15542144</v>
+        <f t="shared" si="6"/>
+        <v>15857806</v>
       </c>
       <c r="J48" s="1"/>
     </row>
@@ -1871,7 +1873,7 @@
         <v>574505</v>
       </c>
       <c r="D49" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>16354723</v>
       </c>
       <c r="E49" s="1">
@@ -1886,8 +1888,8 @@
         <v>210000</v>
       </c>
       <c r="I49" s="1">
-        <f t="shared" si="3"/>
-        <v>16116649</v>
+        <f t="shared" si="6"/>
+        <v>16432311</v>
       </c>
       <c r="J49" s="1"/>
     </row>
@@ -1903,7 +1905,7 @@
         <v>588868</v>
       </c>
       <c r="D50" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>16943591</v>
       </c>
       <c r="E50" s="1">
@@ -1918,8 +1920,8 @@
         <v>210000</v>
       </c>
       <c r="I50" s="1">
-        <f t="shared" si="3"/>
-        <v>16705517</v>
+        <f t="shared" si="6"/>
+        <v>17021179</v>
       </c>
       <c r="J50" s="1"/>
     </row>
@@ -1935,7 +1937,7 @@
         <v>603590</v>
       </c>
       <c r="D51" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>17547181</v>
       </c>
       <c r="E51" s="1">
@@ -1950,8 +1952,8 @@
         <v>210000</v>
       </c>
       <c r="I51" s="1">
-        <f t="shared" si="3"/>
-        <v>17309107</v>
+        <f t="shared" si="6"/>
+        <v>17624769</v>
       </c>
       <c r="J51" s="1"/>
     </row>
@@ -1967,7 +1969,7 @@
         <v>618680</v>
       </c>
       <c r="D52" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>18165861</v>
       </c>
       <c r="E52" s="1">
@@ -1982,8 +1984,8 @@
         <v>210000</v>
       </c>
       <c r="I52" s="1">
-        <f t="shared" si="3"/>
-        <v>17927787</v>
+        <f t="shared" si="6"/>
+        <v>18243449</v>
       </c>
       <c r="J52" s="1"/>
     </row>
@@ -1999,7 +2001,7 @@
         <v>634147</v>
       </c>
       <c r="D53" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>18800008</v>
       </c>
       <c r="E53" s="1">
@@ -2014,8 +2016,8 @@
         <v>210000</v>
       </c>
       <c r="I53" s="1">
-        <f t="shared" si="3"/>
-        <v>18561934</v>
+        <f t="shared" si="6"/>
+        <v>18877596</v>
       </c>
       <c r="J53" s="1"/>
     </row>
@@ -2031,7 +2033,7 @@
         <v>650000</v>
       </c>
       <c r="D54" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>19450008</v>
       </c>
       <c r="E54" s="1">
@@ -2046,8 +2048,8 @@
         <v>210000</v>
       </c>
       <c r="I54" s="1">
-        <f t="shared" si="3"/>
-        <v>19211934</v>
+        <f t="shared" si="6"/>
+        <v>19527596</v>
       </c>
       <c r="J54" s="1"/>
     </row>
@@ -2063,7 +2065,7 @@
         <v>666250</v>
       </c>
       <c r="D55" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>20116258</v>
       </c>
       <c r="E55" s="1">
@@ -2078,8 +2080,8 @@
         <v>210000</v>
       </c>
       <c r="I55" s="1">
-        <f t="shared" si="3"/>
-        <v>19878184</v>
+        <f t="shared" si="6"/>
+        <v>20193846</v>
       </c>
       <c r="J55" s="1"/>
     </row>
@@ -2095,7 +2097,7 @@
         <v>682906</v>
       </c>
       <c r="D56" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>20799164</v>
       </c>
       <c r="E56" s="1">
@@ -2110,8 +2112,8 @@
         <v>210000</v>
       </c>
       <c r="I56" s="1">
-        <f t="shared" si="3"/>
-        <v>20561090</v>
+        <f t="shared" si="6"/>
+        <v>20876752</v>
       </c>
       <c r="J56" s="1"/>
     </row>
@@ -2127,7 +2129,7 @@
         <v>699979</v>
       </c>
       <c r="D57" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>21499143</v>
       </c>
       <c r="E57" s="1">
@@ -2142,8 +2144,8 @@
         <v>210000</v>
       </c>
       <c r="I57" s="1">
-        <f t="shared" si="3"/>
-        <v>21261069</v>
+        <f t="shared" si="6"/>
+        <v>21576731</v>
       </c>
       <c r="J57" s="1"/>
     </row>
@@ -2159,7 +2161,7 @@
         <v>717479</v>
       </c>
       <c r="D58" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>22216622</v>
       </c>
       <c r="E58" s="1">
@@ -2174,8 +2176,8 @@
         <v>210000</v>
       </c>
       <c r="I58" s="1">
-        <f t="shared" si="3"/>
-        <v>21978548</v>
+        <f t="shared" si="6"/>
+        <v>22294210</v>
       </c>
       <c r="J58" s="1"/>
     </row>
@@ -2191,7 +2193,7 @@
         <v>735416</v>
       </c>
       <c r="D59" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>22952038</v>
       </c>
       <c r="E59" s="1">
@@ -2206,8 +2208,8 @@
         <v>210000</v>
       </c>
       <c r="I59" s="1">
-        <f t="shared" si="3"/>
-        <v>22713964</v>
+        <f t="shared" si="6"/>
+        <v>23029626</v>
       </c>
       <c r="J59" s="1"/>
     </row>
@@ -2223,7 +2225,7 @@
         <v>753801</v>
       </c>
       <c r="D60" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>23705839</v>
       </c>
       <c r="E60" s="1">
@@ -2238,8 +2240,8 @@
         <v>210000</v>
       </c>
       <c r="I60" s="1">
-        <f t="shared" si="3"/>
-        <v>23467765</v>
+        <f t="shared" si="6"/>
+        <v>23783427</v>
       </c>
       <c r="J60" s="1"/>
     </row>
@@ -2255,7 +2257,7 @@
         <v>772646</v>
       </c>
       <c r="D61" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>24478485</v>
       </c>
       <c r="E61" s="1">
@@ -2270,8 +2272,8 @@
         <v>210000</v>
       </c>
       <c r="I61" s="1">
-        <f t="shared" si="3"/>
-        <v>24240411</v>
+        <f t="shared" si="6"/>
+        <v>24556073</v>
       </c>
       <c r="J61" s="1"/>
     </row>

--- a/fc/debug_saving.xlsx
+++ b/fc/debug_saving.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kevin\GoI\InsuranceGame\fc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F4B7D1A-13A4-4964-B14D-5766E1596DAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD1D87C4-67D0-413F-855A-F45B8A7EAB01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28800" yWindow="345" windowWidth="58050" windowHeight="22980" xr2:uid="{BBE9402B-D6B4-4641-BA12-C10FFF21168E}"/>
+    <workbookView xWindow="225" yWindow="225" windowWidth="51840" windowHeight="21240" xr2:uid="{BBE9402B-D6B4-4641-BA12-C10FFF21168E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>step</t>
   </si>
@@ -49,6 +49,9 @@
   </si>
   <si>
     <t>Saving ended</t>
+  </si>
+  <si>
+    <t>Saving 2</t>
   </si>
 </sst>
 </file>
@@ -401,10 +404,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{392C735B-4C7D-4DFC-B895-F845E7471A63}">
-  <dimension ref="A1:J61"/>
+  <dimension ref="A1:M61"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="Q25" sqref="Q25"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S6" sqref="S6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -415,9 +418,10 @@
     <col min="7" max="7" width="22" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -442,8 +446,11 @@
       <c r="I1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -462,7 +469,7 @@
       </c>
       <c r="J2" s="1"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3">
         <f>A2+1</f>
         <v>1</v>
@@ -482,7 +489,7 @@
       </c>
       <c r="J3" s="1"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4">
         <f t="shared" ref="A4:A61" si="0">A3+1</f>
         <v>2</v>
@@ -502,7 +509,7 @@
       </c>
       <c r="J4" s="1"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -522,7 +529,7 @@
       </c>
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -542,7 +549,7 @@
       </c>
       <c r="J6" s="1"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -569,8 +576,12 @@
         <v>1137792</v>
       </c>
       <c r="J7" s="1"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L7" s="1">
+        <f>I7-J7+K7</f>
+        <v>1137792</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -597,8 +608,12 @@
         <v>1346537</v>
       </c>
       <c r="J8" s="1"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L8" s="1">
+        <f t="shared" ref="L8:L61" si="3">I8-J8+K8</f>
+        <v>1346537</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -625,8 +640,12 @@
         <v>1560500</v>
       </c>
       <c r="J9" s="1"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L9" s="1">
+        <f t="shared" si="3"/>
+        <v>1560500</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -653,8 +672,12 @@
         <v>1779813</v>
       </c>
       <c r="J10" s="1"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L10" s="1">
+        <f t="shared" si="3"/>
+        <v>1779813</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -681,8 +704,12 @@
         <v>2004608</v>
       </c>
       <c r="J11" s="1"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L11" s="1">
+        <f t="shared" si="3"/>
+        <v>2004608</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -709,8 +736,12 @@
         <v>2235023</v>
       </c>
       <c r="J12" s="1"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L12" s="1">
+        <f t="shared" si="3"/>
+        <v>2235023</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -736,9 +767,16 @@
         <f t="shared" si="2"/>
         <v>2471199</v>
       </c>
-      <c r="J13" s="1"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J13">
+        <f>12000</f>
+        <v>12000</v>
+      </c>
+      <c r="L13" s="1">
+        <f t="shared" si="3"/>
+        <v>2459199</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -767,9 +805,16 @@
         <f>D14-F14-E14-G14</f>
         <v>2623279</v>
       </c>
-      <c r="J14" s="1"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J14">
+        <f>12000</f>
+        <v>12000</v>
+      </c>
+      <c r="L14" s="1">
+        <f t="shared" si="3"/>
+        <v>2611279</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -798,9 +843,16 @@
         <f>D15-F15-E15-G15</f>
         <v>2871411</v>
       </c>
-      <c r="J15" s="1"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J15">
+        <f>12000</f>
+        <v>12000</v>
+      </c>
+      <c r="L15" s="1">
+        <f t="shared" si="3"/>
+        <v>2859411</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -826,12 +878,19 @@
         <v>90000</v>
       </c>
       <c r="I16" s="1">
-        <f t="shared" ref="I16:I61" si="3">D16-F16-E16-G16</f>
+        <f t="shared" ref="I16:I30" si="4">D16-F16-E16-G16</f>
         <v>3125746</v>
       </c>
-      <c r="J16" s="1"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J16">
+        <f>12000</f>
+        <v>12000</v>
+      </c>
+      <c r="L16" s="1">
+        <f t="shared" si="3"/>
+        <v>3113746</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -857,12 +916,19 @@
         <v>90000</v>
       </c>
       <c r="I17" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3386440</v>
       </c>
-      <c r="J17" s="1"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J17">
+        <f>12000</f>
+        <v>12000</v>
+      </c>
+      <c r="L17" s="1">
+        <f t="shared" si="3"/>
+        <v>3374440</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -888,12 +954,19 @@
         <v>90000</v>
       </c>
       <c r="I18" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3653651</v>
       </c>
-      <c r="J18" s="1"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J18">
+        <f>12000</f>
+        <v>12000</v>
+      </c>
+      <c r="L18" s="1">
+        <f t="shared" si="3"/>
+        <v>3641651</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -919,12 +992,19 @@
         <v>90000</v>
       </c>
       <c r="I19" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3927542</v>
       </c>
-      <c r="J19" s="1"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J19">
+        <f>12000</f>
+        <v>12000</v>
+      </c>
+      <c r="L19" s="1">
+        <f t="shared" si="3"/>
+        <v>3915542</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -951,12 +1031,19 @@
         <v>90000</v>
       </c>
       <c r="I20" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4180207</v>
       </c>
-      <c r="J20" s="1"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J20">
+        <f>12000</f>
+        <v>12000</v>
+      </c>
+      <c r="L20" s="1">
+        <f t="shared" si="3"/>
+        <v>4168207</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -983,12 +1070,19 @@
         <v>90000</v>
       </c>
       <c r="I21" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4467964</v>
       </c>
-      <c r="J21" s="1"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J21">
+        <f>12000</f>
+        <v>12000</v>
+      </c>
+      <c r="L21" s="1">
+        <f t="shared" si="3"/>
+        <v>4455964</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -1004,7 +1098,7 @@
         <v>4892989</v>
       </c>
       <c r="E22" s="1">
-        <f t="shared" ref="E22:E61" si="4">E21</f>
+        <f t="shared" ref="E22:E61" si="5">E21</f>
         <v>28074</v>
       </c>
       <c r="F22">
@@ -1018,9 +1112,16 @@
         <f>D22-F22-E22-G22</f>
         <v>4762915</v>
       </c>
-      <c r="J22" s="1"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J22">
+        <f>12000</f>
+        <v>12000</v>
+      </c>
+      <c r="L22" s="1">
+        <f t="shared" si="3"/>
+        <v>4750915</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -1036,7 +1137,7 @@
         <v>5195314</v>
       </c>
       <c r="E23" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>28074</v>
       </c>
       <c r="F23">
@@ -1047,12 +1148,19 @@
         <v>90000</v>
       </c>
       <c r="I23" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5065240</v>
       </c>
-      <c r="J23" s="1"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J23">
+        <f>12000</f>
+        <v>12000</v>
+      </c>
+      <c r="L23" s="1">
+        <f t="shared" si="3"/>
+        <v>5053240</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -1068,7 +1176,7 @@
         <v>5505197</v>
       </c>
       <c r="E24" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>28074</v>
       </c>
       <c r="F24">
@@ -1079,12 +1187,19 @@
         <v>90000</v>
       </c>
       <c r="I24" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5375123</v>
       </c>
-      <c r="J24" s="1"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J24">
+        <f>12000</f>
+        <v>12000</v>
+      </c>
+      <c r="L24" s="1">
+        <f t="shared" si="3"/>
+        <v>5363123</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -1100,7 +1215,7 @@
         <v>5822827</v>
       </c>
       <c r="E25" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>28074</v>
       </c>
       <c r="F25">
@@ -1111,12 +1226,19 @@
         <v>90000</v>
       </c>
       <c r="I25" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5692753</v>
       </c>
-      <c r="J25" s="1"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J25">
+        <f>12000</f>
+        <v>12000</v>
+      </c>
+      <c r="L25" s="1">
+        <f t="shared" si="3"/>
+        <v>5680753</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -1132,7 +1254,7 @@
         <v>6148398</v>
       </c>
       <c r="E26" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>28074</v>
       </c>
       <c r="F26">
@@ -1144,12 +1266,19 @@
         <v>210000</v>
       </c>
       <c r="I26" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5898324</v>
       </c>
-      <c r="J26" s="1"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J26">
+        <f>12000</f>
+        <v>12000</v>
+      </c>
+      <c r="L26" s="1">
+        <f t="shared" si="3"/>
+        <v>5886324</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -1165,24 +1294,31 @@
         <v>6482108</v>
       </c>
       <c r="E27" s="1">
+        <f t="shared" si="5"/>
+        <v>28074</v>
+      </c>
+      <c r="F27">
+        <f>12000</f>
+        <v>12000</v>
+      </c>
+      <c r="G27">
+        <f t="shared" ref="G27:G61" si="6">120000+90000</f>
+        <v>210000</v>
+      </c>
+      <c r="I27" s="1">
         <f t="shared" si="4"/>
-        <v>28074</v>
-      </c>
-      <c r="F27">
-        <f>12000</f>
-        <v>12000</v>
-      </c>
-      <c r="G27">
-        <f t="shared" ref="G27:G61" si="5">120000+90000</f>
-        <v>210000</v>
-      </c>
-      <c r="I27" s="1">
-        <f t="shared" si="3"/>
         <v>6232034</v>
       </c>
-      <c r="J27" s="1"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J27">
+        <f>12000</f>
+        <v>12000</v>
+      </c>
+      <c r="L27" s="1">
+        <f t="shared" si="3"/>
+        <v>6220034</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -1198,24 +1334,31 @@
         <v>6824161</v>
       </c>
       <c r="E28" s="1">
+        <f t="shared" si="5"/>
+        <v>28074</v>
+      </c>
+      <c r="F28">
+        <f>12000</f>
+        <v>12000</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="6"/>
+        <v>210000</v>
+      </c>
+      <c r="I28" s="1">
         <f t="shared" si="4"/>
-        <v>28074</v>
-      </c>
-      <c r="F28">
-        <f>12000</f>
-        <v>12000</v>
-      </c>
-      <c r="G28">
-        <f t="shared" si="5"/>
-        <v>210000</v>
-      </c>
-      <c r="I28" s="1">
-        <f t="shared" si="3"/>
         <v>6574087</v>
       </c>
-      <c r="J28" s="1"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J28">
+        <f>12000</f>
+        <v>12000</v>
+      </c>
+      <c r="L28" s="1">
+        <f t="shared" si="3"/>
+        <v>6562087</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -1231,24 +1374,31 @@
         <v>7174765</v>
       </c>
       <c r="E29" s="1">
+        <f t="shared" si="5"/>
+        <v>28074</v>
+      </c>
+      <c r="F29">
+        <f>12000</f>
+        <v>12000</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="6"/>
+        <v>210000</v>
+      </c>
+      <c r="I29" s="1">
         <f t="shared" si="4"/>
-        <v>28074</v>
-      </c>
-      <c r="F29">
-        <f>12000</f>
-        <v>12000</v>
-      </c>
-      <c r="G29">
-        <f t="shared" si="5"/>
-        <v>210000</v>
-      </c>
-      <c r="I29" s="1">
-        <f t="shared" si="3"/>
         <v>6924691</v>
       </c>
-      <c r="J29" s="1"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J29">
+        <f>12000</f>
+        <v>12000</v>
+      </c>
+      <c r="L29" s="1">
+        <f t="shared" si="3"/>
+        <v>6912691</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -1264,24 +1414,31 @@
         <v>7534134</v>
       </c>
       <c r="E30" s="1">
+        <f t="shared" si="5"/>
+        <v>28074</v>
+      </c>
+      <c r="F30">
+        <f>12000</f>
+        <v>12000</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="6"/>
+        <v>210000</v>
+      </c>
+      <c r="I30" s="1">
         <f t="shared" si="4"/>
-        <v>28074</v>
-      </c>
-      <c r="F30">
-        <f>12000</f>
-        <v>12000</v>
-      </c>
-      <c r="G30">
-        <f t="shared" si="5"/>
-        <v>210000</v>
-      </c>
-      <c r="I30" s="1">
-        <f t="shared" si="3"/>
         <v>7284060</v>
       </c>
-      <c r="J30" s="1"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J30">
+        <f>12000</f>
+        <v>12000</v>
+      </c>
+      <c r="L30" s="1">
+        <f t="shared" si="3"/>
+        <v>7272060</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -1297,7 +1454,7 @@
         <v>7902487</v>
       </c>
       <c r="E31" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>28074</v>
       </c>
       <c r="F31">
@@ -1305,19 +1462,23 @@
         <v>12000</v>
       </c>
       <c r="G31">
-        <f t="shared" si="5"/>
-        <v>210000</v>
-      </c>
-      <c r="H31">
-        <v>315662</v>
+        <f t="shared" si="6"/>
+        <v>210000</v>
       </c>
       <c r="I31" s="1">
-        <f>D31-F31-E31-G31+$H$31</f>
-        <v>7968075</v>
-      </c>
-      <c r="J31" s="1"/>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+        <f>D31-F31-E31-G31</f>
+        <v>7652413</v>
+      </c>
+      <c r="J31">
+        <f>12000</f>
+        <v>12000</v>
+      </c>
+      <c r="L31" s="1">
+        <f t="shared" si="3"/>
+        <v>7640413</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -1333,23 +1494,33 @@
         <v>8280049</v>
       </c>
       <c r="E32" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>28074</v>
       </c>
       <c r="F32">
         <v>0</v>
       </c>
       <c r="G32">
-        <f t="shared" si="5"/>
-        <v>210000</v>
+        <f t="shared" si="6"/>
+        <v>210000</v>
+      </c>
+      <c r="H32">
+        <v>315662</v>
       </c>
       <c r="I32" s="1">
-        <f t="shared" ref="I32:I61" si="6">D32-F32-E32-G32+$H$31</f>
+        <f>D32-F32-E32-G32+$H$32</f>
         <v>8357637</v>
       </c>
-      <c r="J32" s="1"/>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J32">
+        <f>12000</f>
+        <v>12000</v>
+      </c>
+      <c r="L32" s="1">
+        <f t="shared" si="3"/>
+        <v>8345637</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -1365,23 +1536,30 @@
         <v>8667050</v>
       </c>
       <c r="E33" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>28074</v>
       </c>
       <c r="F33">
         <v>0</v>
       </c>
       <c r="G33">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>210000</v>
       </c>
       <c r="I33" s="1">
-        <f t="shared" si="6"/>
+        <f>D33-F33-E33-G33+$H$32</f>
         <v>8744638</v>
       </c>
-      <c r="J33" s="1"/>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J33">
+        <f>12000</f>
+        <v>12000</v>
+      </c>
+      <c r="L33" s="1">
+        <f t="shared" si="3"/>
+        <v>8732638</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -1397,23 +1575,30 @@
         <v>9063726</v>
       </c>
       <c r="E34" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>28074</v>
       </c>
       <c r="F34">
         <v>0</v>
       </c>
       <c r="G34">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>210000</v>
       </c>
       <c r="I34" s="1">
-        <f t="shared" si="6"/>
+        <f>D34-F34-E34-G34+$H$32</f>
         <v>9141314</v>
       </c>
-      <c r="J34" s="1"/>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J34">
+        <f>12000</f>
+        <v>12000</v>
+      </c>
+      <c r="L34" s="1">
+        <f t="shared" si="3"/>
+        <v>9129314</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -1429,23 +1614,30 @@
         <v>9470319</v>
       </c>
       <c r="E35" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>28074</v>
       </c>
       <c r="F35">
         <v>0</v>
       </c>
       <c r="G35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>210000</v>
       </c>
       <c r="I35" s="1">
-        <f t="shared" si="6"/>
+        <f>D35-F35-E35-G35+$H$32</f>
         <v>9547907</v>
       </c>
-      <c r="J35" s="1"/>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J35">
+        <f>12000</f>
+        <v>12000</v>
+      </c>
+      <c r="L35" s="1">
+        <f t="shared" si="3"/>
+        <v>9535907</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -1461,23 +1653,30 @@
         <v>9887077</v>
       </c>
       <c r="E36" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>28074</v>
       </c>
       <c r="F36">
         <v>0</v>
       </c>
       <c r="G36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>210000</v>
       </c>
       <c r="I36" s="1">
-        <f t="shared" si="6"/>
+        <f>D36-F36-E36-G36+$H$32</f>
         <v>9964665</v>
       </c>
-      <c r="J36" s="1"/>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J36">
+        <f>12000</f>
+        <v>12000</v>
+      </c>
+      <c r="L36" s="1">
+        <f t="shared" si="3"/>
+        <v>9952665</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -1493,23 +1692,30 @@
         <v>10314254</v>
       </c>
       <c r="E37" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>28074</v>
       </c>
       <c r="F37">
         <v>0</v>
       </c>
       <c r="G37">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>210000</v>
       </c>
       <c r="I37" s="1">
-        <f t="shared" si="6"/>
+        <f>D37-F37-E37-G37+$H$32</f>
         <v>10391842</v>
       </c>
-      <c r="J37" s="1"/>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J37">
+        <f>12000</f>
+        <v>12000</v>
+      </c>
+      <c r="L37" s="1">
+        <f>I37-J37+K37</f>
+        <v>10379842</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -1525,23 +1731,36 @@
         <v>10752110</v>
       </c>
       <c r="E38" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>28074</v>
       </c>
       <c r="F38">
         <v>0</v>
       </c>
       <c r="G38">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>210000</v>
       </c>
       <c r="I38" s="1">
-        <f t="shared" si="6"/>
+        <f>D38-F38-E38-G38+$H$32</f>
         <v>10829698</v>
       </c>
-      <c r="J38" s="1"/>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J38">
+        <v>0</v>
+      </c>
+      <c r="K38">
+        <v>315662</v>
+      </c>
+      <c r="L38" s="1">
+        <f>I38-J38+$K$38</f>
+        <v>11145360</v>
+      </c>
+      <c r="M38" s="1">
+        <f>L38-C38-300000-C37</f>
+        <v>9980327</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -1557,23 +1776,29 @@
         <v>11200913</v>
       </c>
       <c r="E39" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>28074</v>
       </c>
       <c r="F39">
         <v>0</v>
       </c>
       <c r="G39">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>210000</v>
       </c>
       <c r="I39" s="1">
-        <f t="shared" si="6"/>
+        <f>D39-F39-E39-G39+$H$32</f>
         <v>11278501</v>
       </c>
-      <c r="J39" s="1"/>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J39">
+        <v>0</v>
+      </c>
+      <c r="L39" s="1">
+        <f t="shared" ref="L39:L61" si="8">I39-J39+$K$38</f>
+        <v>11594163</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -1589,23 +1814,29 @@
         <v>11660936</v>
       </c>
       <c r="E40" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>28074</v>
       </c>
       <c r="F40">
         <v>0</v>
       </c>
       <c r="G40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>210000</v>
       </c>
       <c r="I40" s="1">
-        <f t="shared" si="6"/>
+        <f>D40-F40-E40-G40+$H$32</f>
         <v>11738524</v>
       </c>
-      <c r="J40" s="1"/>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="L40" s="1">
+        <f t="shared" si="8"/>
+        <v>12054186</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -1621,23 +1852,29 @@
         <v>12132459</v>
       </c>
       <c r="E41" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>28074</v>
       </c>
       <c r="F41">
         <v>0</v>
       </c>
       <c r="G41">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>210000</v>
       </c>
       <c r="I41" s="1">
-        <f t="shared" si="6"/>
+        <f>D41-F41-E41-G41+$H$32</f>
         <v>12210047</v>
       </c>
-      <c r="J41" s="1"/>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="L41" s="1">
+        <f t="shared" si="8"/>
+        <v>12525709</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -1653,23 +1890,29 @@
         <v>12615770</v>
       </c>
       <c r="E42" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>28074</v>
       </c>
       <c r="F42">
         <v>0</v>
       </c>
       <c r="G42">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>210000</v>
       </c>
       <c r="I42" s="1">
-        <f t="shared" si="6"/>
+        <f>D42-F42-E42-G42+$H$32</f>
         <v>12693358</v>
       </c>
-      <c r="J42" s="1"/>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="L42" s="1">
+        <f t="shared" si="8"/>
+        <v>13009020</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -1685,23 +1928,29 @@
         <v>13111164</v>
       </c>
       <c r="E43" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>28074</v>
       </c>
       <c r="F43">
         <v>0</v>
       </c>
       <c r="G43">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>210000</v>
       </c>
       <c r="I43" s="1">
-        <f t="shared" si="6"/>
+        <f>D43-F43-E43-G43+$H$32</f>
         <v>13188752</v>
       </c>
-      <c r="J43" s="1"/>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="L43" s="1">
+        <f t="shared" si="8"/>
+        <v>13504414</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -1717,23 +1966,29 @@
         <v>13618943</v>
       </c>
       <c r="E44" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>28074</v>
       </c>
       <c r="F44">
         <v>0</v>
       </c>
       <c r="G44">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>210000</v>
       </c>
       <c r="I44" s="1">
-        <f t="shared" si="6"/>
+        <f>D44-F44-E44-G44+$H$32</f>
         <v>13696531</v>
       </c>
-      <c r="J44" s="1"/>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J44">
+        <v>0</v>
+      </c>
+      <c r="L44" s="1">
+        <f t="shared" si="8"/>
+        <v>14012193</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -1749,23 +2004,29 @@
         <v>14139417</v>
       </c>
       <c r="E45" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>28074</v>
       </c>
       <c r="F45">
         <v>0</v>
       </c>
       <c r="G45">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>210000</v>
       </c>
       <c r="I45" s="1">
-        <f t="shared" si="6"/>
+        <f>D45-F45-E45-G45+$H$32</f>
         <v>14217005</v>
       </c>
-      <c r="J45" s="1"/>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="L45" s="1">
+        <f t="shared" si="8"/>
+        <v>14532667</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -1781,23 +2042,29 @@
         <v>14672902</v>
       </c>
       <c r="E46" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>28074</v>
       </c>
       <c r="F46">
         <v>0</v>
       </c>
       <c r="G46">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>210000</v>
       </c>
       <c r="I46" s="1">
-        <f t="shared" si="6"/>
+        <f>D46-F46-E46-G46+$H$32</f>
         <v>14750490</v>
       </c>
-      <c r="J46" s="1"/>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J46">
+        <v>0</v>
+      </c>
+      <c r="L46" s="1">
+        <f t="shared" si="8"/>
+        <v>15066152</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -1813,23 +2080,29 @@
         <v>15219725</v>
       </c>
       <c r="E47" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>28074</v>
       </c>
       <c r="F47">
         <v>0</v>
       </c>
       <c r="G47">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>210000</v>
       </c>
       <c r="I47" s="1">
-        <f t="shared" si="6"/>
+        <f>D47-F47-E47-G47+$H$32</f>
         <v>15297313</v>
       </c>
-      <c r="J47" s="1"/>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J47">
+        <v>0</v>
+      </c>
+      <c r="L47" s="1">
+        <f t="shared" si="8"/>
+        <v>15612975</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48">
         <f t="shared" si="0"/>
         <v>46</v>
@@ -1845,23 +2118,29 @@
         <v>15780218</v>
       </c>
       <c r="E48" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>28074</v>
       </c>
       <c r="F48">
         <v>0</v>
       </c>
       <c r="G48">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>210000</v>
       </c>
       <c r="I48" s="1">
-        <f t="shared" si="6"/>
+        <f>D48-F48-E48-G48+$H$32</f>
         <v>15857806</v>
       </c>
-      <c r="J48" s="1"/>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J48">
+        <v>0</v>
+      </c>
+      <c r="L48" s="1">
+        <f t="shared" si="8"/>
+        <v>16173468</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49">
         <f t="shared" si="0"/>
         <v>47</v>
@@ -1877,23 +2156,29 @@
         <v>16354723</v>
       </c>
       <c r="E49" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>28074</v>
       </c>
       <c r="F49">
         <v>0</v>
       </c>
       <c r="G49">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>210000</v>
       </c>
       <c r="I49" s="1">
-        <f t="shared" si="6"/>
+        <f>D49-F49-E49-G49+$H$32</f>
         <v>16432311</v>
       </c>
-      <c r="J49" s="1"/>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J49">
+        <v>0</v>
+      </c>
+      <c r="L49" s="1">
+        <f t="shared" si="8"/>
+        <v>16747973</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50">
         <f t="shared" si="0"/>
         <v>48</v>
@@ -1909,23 +2194,29 @@
         <v>16943591</v>
       </c>
       <c r="E50" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>28074</v>
       </c>
       <c r="F50">
         <v>0</v>
       </c>
       <c r="G50">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>210000</v>
       </c>
       <c r="I50" s="1">
-        <f t="shared" si="6"/>
+        <f>D50-F50-E50-G50+$H$32</f>
         <v>17021179</v>
       </c>
-      <c r="J50" s="1"/>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J50">
+        <v>0</v>
+      </c>
+      <c r="L50" s="1">
+        <f t="shared" si="8"/>
+        <v>17336841</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51">
         <f t="shared" si="0"/>
         <v>49</v>
@@ -1941,23 +2232,29 @@
         <v>17547181</v>
       </c>
       <c r="E51" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>28074</v>
       </c>
       <c r="F51">
         <v>0</v>
       </c>
       <c r="G51">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>210000</v>
       </c>
       <c r="I51" s="1">
-        <f t="shared" si="6"/>
+        <f>D51-F51-E51-G51+$H$32</f>
         <v>17624769</v>
       </c>
-      <c r="J51" s="1"/>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J51">
+        <v>0</v>
+      </c>
+      <c r="L51" s="1">
+        <f t="shared" si="8"/>
+        <v>17940431</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52">
         <f t="shared" si="0"/>
         <v>50</v>
@@ -1973,23 +2270,29 @@
         <v>18165861</v>
       </c>
       <c r="E52" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>28074</v>
       </c>
       <c r="F52">
         <v>0</v>
       </c>
       <c r="G52">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>210000</v>
       </c>
       <c r="I52" s="1">
-        <f t="shared" si="6"/>
+        <f>D52-F52-E52-G52+$H$32</f>
         <v>18243449</v>
       </c>
-      <c r="J52" s="1"/>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="L52" s="1">
+        <f t="shared" si="8"/>
+        <v>18559111</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53">
         <f t="shared" si="0"/>
         <v>51</v>
@@ -2005,23 +2308,29 @@
         <v>18800008</v>
       </c>
       <c r="E53" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>28074</v>
       </c>
       <c r="F53">
         <v>0</v>
       </c>
       <c r="G53">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>210000</v>
       </c>
       <c r="I53" s="1">
-        <f t="shared" si="6"/>
+        <f>D53-F53-E53-G53+$H$32</f>
         <v>18877596</v>
       </c>
-      <c r="J53" s="1"/>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J53">
+        <v>0</v>
+      </c>
+      <c r="L53" s="1">
+        <f t="shared" si="8"/>
+        <v>19193258</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54">
         <f t="shared" si="0"/>
         <v>52</v>
@@ -2037,23 +2346,29 @@
         <v>19450008</v>
       </c>
       <c r="E54" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>28074</v>
       </c>
       <c r="F54">
         <v>0</v>
       </c>
       <c r="G54">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>210000</v>
       </c>
       <c r="I54" s="1">
-        <f t="shared" si="6"/>
+        <f>D54-F54-E54-G54+$H$32</f>
         <v>19527596</v>
       </c>
-      <c r="J54" s="1"/>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J54">
+        <v>0</v>
+      </c>
+      <c r="L54" s="1">
+        <f t="shared" si="8"/>
+        <v>19843258</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55">
         <f t="shared" si="0"/>
         <v>53</v>
@@ -2069,23 +2384,29 @@
         <v>20116258</v>
       </c>
       <c r="E55" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>28074</v>
       </c>
       <c r="F55">
         <v>0</v>
       </c>
       <c r="G55">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>210000</v>
       </c>
       <c r="I55" s="1">
-        <f t="shared" si="6"/>
+        <f>D55-F55-E55-G55+$H$32</f>
         <v>20193846</v>
       </c>
-      <c r="J55" s="1"/>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J55">
+        <v>0</v>
+      </c>
+      <c r="L55" s="1">
+        <f t="shared" si="8"/>
+        <v>20509508</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56">
         <f t="shared" si="0"/>
         <v>54</v>
@@ -2101,23 +2422,29 @@
         <v>20799164</v>
       </c>
       <c r="E56" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>28074</v>
       </c>
       <c r="F56">
         <v>0</v>
       </c>
       <c r="G56">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>210000</v>
       </c>
       <c r="I56" s="1">
-        <f t="shared" si="6"/>
+        <f>D56-F56-E56-G56+$H$32</f>
         <v>20876752</v>
       </c>
-      <c r="J56" s="1"/>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J56">
+        <v>0</v>
+      </c>
+      <c r="L56" s="1">
+        <f t="shared" si="8"/>
+        <v>21192414</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57">
         <f t="shared" si="0"/>
         <v>55</v>
@@ -2133,23 +2460,29 @@
         <v>21499143</v>
       </c>
       <c r="E57" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>28074</v>
       </c>
       <c r="F57">
         <v>0</v>
       </c>
       <c r="G57">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>210000</v>
       </c>
       <c r="I57" s="1">
-        <f t="shared" si="6"/>
+        <f>D57-F57-E57-G57+$H$32</f>
         <v>21576731</v>
       </c>
-      <c r="J57" s="1"/>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="L57" s="1">
+        <f t="shared" si="8"/>
+        <v>21892393</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58">
         <f t="shared" si="0"/>
         <v>56</v>
@@ -2165,23 +2498,29 @@
         <v>22216622</v>
       </c>
       <c r="E58" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>28074</v>
       </c>
       <c r="F58">
         <v>0</v>
       </c>
       <c r="G58">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>210000</v>
       </c>
       <c r="I58" s="1">
-        <f t="shared" si="6"/>
+        <f>D58-F58-E58-G58+$H$32</f>
         <v>22294210</v>
       </c>
-      <c r="J58" s="1"/>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J58">
+        <v>0</v>
+      </c>
+      <c r="L58" s="1">
+        <f t="shared" si="8"/>
+        <v>22609872</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59">
         <f t="shared" si="0"/>
         <v>57</v>
@@ -2197,23 +2536,29 @@
         <v>22952038</v>
       </c>
       <c r="E59" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>28074</v>
       </c>
       <c r="F59">
         <v>0</v>
       </c>
       <c r="G59">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>210000</v>
       </c>
       <c r="I59" s="1">
-        <f t="shared" si="6"/>
+        <f>D59-F59-E59-G59+$H$32</f>
         <v>23029626</v>
       </c>
-      <c r="J59" s="1"/>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J59">
+        <v>0</v>
+      </c>
+      <c r="L59" s="1">
+        <f t="shared" si="8"/>
+        <v>23345288</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60">
         <f t="shared" si="0"/>
         <v>58</v>
@@ -2229,23 +2574,29 @@
         <v>23705839</v>
       </c>
       <c r="E60" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>28074</v>
       </c>
       <c r="F60">
         <v>0</v>
       </c>
       <c r="G60">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>210000</v>
       </c>
       <c r="I60" s="1">
-        <f t="shared" si="6"/>
+        <f>D60-F60-E60-G60+$H$32</f>
         <v>23783427</v>
       </c>
-      <c r="J60" s="1"/>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J60">
+        <v>0</v>
+      </c>
+      <c r="L60" s="1">
+        <f t="shared" si="8"/>
+        <v>24099089</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61">
         <f t="shared" si="0"/>
         <v>59</v>
@@ -2261,21 +2612,27 @@
         <v>24478485</v>
       </c>
       <c r="E61" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>28074</v>
       </c>
       <c r="F61">
         <v>0</v>
       </c>
       <c r="G61">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>210000</v>
       </c>
       <c r="I61" s="1">
-        <f t="shared" si="6"/>
+        <f>D61-F61-E61-G61+$H$32</f>
         <v>24556073</v>
       </c>
-      <c r="J61" s="1"/>
+      <c r="J61">
+        <v>0</v>
+      </c>
+      <c r="L61" s="1">
+        <f t="shared" si="8"/>
+        <v>24871735</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
